--- a/db/load/cdisc/ct/changes/2021-09-24/SEND Terminology Changes 2021-09-24.xlsx
+++ b/db/load/cdisc/ct/changes/2021-09-24/SEND Terminology Changes 2021-09-24.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/changes/2021-09-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7A3F6F1-1F5B-8E48-ADE4-ADA8BB8E041E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCB636C-C760-EC4D-86CF-72EC6A3F0261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35540" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEND Terminology Changes" sheetId="1" r:id="rId1"/>
@@ -19,20 +19,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SEND Terminology Changes'!$A$1:$K$363</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3487" uniqueCount="680">
   <si>
     <t>Release Date</t>
   </si>
@@ -2048,14 +2039,38 @@
   </si>
   <si>
     <t>Retire from codelist. This data is better modeled in the CP domain as per SDTMIGv3.4. If unable to make use of CP domain for non-clinical studies, these tests can continue to be used as extensible terms.</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Prev Codelist</t>
+  </si>
+  <si>
+    <t>Prev Term</t>
+  </si>
+  <si>
+    <t>New Codelists</t>
+  </si>
+  <si>
+    <t>New Terms</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>In SDTM changes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -2077,7 +2092,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2090,8 +2105,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2114,6 +2135,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2121,7 +2155,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2129,21 +2163,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2162,12 +2196,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="1"/>
-    <cellStyle name="Normal 23 2" xfId="2"/>
-    <cellStyle name="Normal 28" xfId="3"/>
+    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 23 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 28" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -17299,12 +17340,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K363"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Q363"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O247" sqref="O247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -17316,10 +17358,12 @@
     <col min="7" max="8" width="24.6640625" style="5" customWidth="1"/>
     <col min="9" max="10" width="45.6640625" style="5" customWidth="1"/>
     <col min="11" max="11" width="24.6640625" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="5"/>
+    <col min="12" max="16" width="9.1640625" style="5"/>
+    <col min="17" max="17" width="19.1640625" style="5" customWidth="1"/>
+    <col min="18" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="50.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="50.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -17353,8 +17397,26 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L1" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>673</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>675</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>44463</v>
       </c>
@@ -17386,8 +17448,14 @@
         <v>95</v>
       </c>
       <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>44463</v>
       </c>
@@ -17419,8 +17487,14 @@
         <v>93</v>
       </c>
       <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>44463</v>
       </c>
@@ -17452,8 +17526,14 @@
         <v>180</v>
       </c>
       <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>44463</v>
       </c>
@@ -17485,8 +17565,14 @@
         <v>186</v>
       </c>
       <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>44463</v>
       </c>
@@ -17518,8 +17604,14 @@
         <v>188</v>
       </c>
       <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>44463</v>
       </c>
@@ -17551,8 +17643,14 @@
         <v>190</v>
       </c>
       <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>44463</v>
       </c>
@@ -17584,8 +17682,14 @@
         <v>192</v>
       </c>
       <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>44463</v>
       </c>
@@ -17617,8 +17721,14 @@
         <v>194</v>
       </c>
       <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>44463</v>
       </c>
@@ -17650,8 +17760,14 @@
         <v>196</v>
       </c>
       <c r="K10" s="11"/>
-    </row>
-    <row r="11" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>44463</v>
       </c>
@@ -17683,8 +17799,14 @@
         <v>198</v>
       </c>
       <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>44463</v>
       </c>
@@ -17716,8 +17838,14 @@
         <v>200</v>
       </c>
       <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>44463</v>
       </c>
@@ -17749,8 +17877,14 @@
         <v>202</v>
       </c>
       <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>44463</v>
       </c>
@@ -17782,8 +17916,14 @@
         <v>204</v>
       </c>
       <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>44463</v>
       </c>
@@ -17815,8 +17955,14 @@
         <v>206</v>
       </c>
       <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>44463</v>
       </c>
@@ -17848,8 +17994,14 @@
         <v>208</v>
       </c>
       <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>44463</v>
       </c>
@@ -17881,8 +18033,14 @@
         <v>210</v>
       </c>
       <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>44463</v>
       </c>
@@ -17914,8 +18072,14 @@
         <v>212</v>
       </c>
       <c r="K18" s="11"/>
-    </row>
-    <row r="19" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>44463</v>
       </c>
@@ -17947,8 +18111,14 @@
         <v>214</v>
       </c>
       <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>44463</v>
       </c>
@@ -17980,8 +18150,14 @@
         <v>216</v>
       </c>
       <c r="K20" s="11"/>
-    </row>
-    <row r="21" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>44463</v>
       </c>
@@ -18013,8 +18189,14 @@
         <v>218</v>
       </c>
       <c r="K21" s="11"/>
-    </row>
-    <row r="22" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>44463</v>
       </c>
@@ -18046,8 +18228,14 @@
         <v>220</v>
       </c>
       <c r="K22" s="11"/>
-    </row>
-    <row r="23" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>44463</v>
       </c>
@@ -18079,8 +18267,14 @@
         <v>222</v>
       </c>
       <c r="K23" s="11"/>
-    </row>
-    <row r="24" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>44463</v>
       </c>
@@ -18112,8 +18306,14 @@
         <v>224</v>
       </c>
       <c r="K24" s="11"/>
-    </row>
-    <row r="25" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>44463</v>
       </c>
@@ -18145,8 +18345,14 @@
         <v>226</v>
       </c>
       <c r="K25" s="11"/>
-    </row>
-    <row r="26" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>44463</v>
       </c>
@@ -18178,8 +18384,14 @@
         <v>228</v>
       </c>
       <c r="K26" s="11"/>
-    </row>
-    <row r="27" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>44463</v>
       </c>
@@ -18211,8 +18423,14 @@
         <v>230</v>
       </c>
       <c r="K27" s="11"/>
-    </row>
-    <row r="28" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>44463</v>
       </c>
@@ -18244,8 +18462,14 @@
         <v>232</v>
       </c>
       <c r="K28" s="11"/>
-    </row>
-    <row r="29" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>44463</v>
       </c>
@@ -18277,8 +18501,14 @@
         <v>234</v>
       </c>
       <c r="K29" s="11"/>
-    </row>
-    <row r="30" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>44463</v>
       </c>
@@ -18310,8 +18540,14 @@
         <v>236</v>
       </c>
       <c r="K30" s="11"/>
-    </row>
-    <row r="31" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>44463</v>
       </c>
@@ -18343,8 +18579,14 @@
         <v>238</v>
       </c>
       <c r="K31" s="11"/>
-    </row>
-    <row r="32" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>44463</v>
       </c>
@@ -18376,8 +18618,14 @@
         <v>240</v>
       </c>
       <c r="K32" s="11"/>
-    </row>
-    <row r="33" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="33" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>44463</v>
       </c>
@@ -18409,8 +18657,14 @@
         <v>242</v>
       </c>
       <c r="K33" s="11"/>
-    </row>
-    <row r="34" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+    </row>
+    <row r="34" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>44463</v>
       </c>
@@ -18442,8 +18696,14 @@
         <v>244</v>
       </c>
       <c r="K34" s="11"/>
-    </row>
-    <row r="35" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>44463</v>
       </c>
@@ -18475,8 +18735,14 @@
         <v>246</v>
       </c>
       <c r="K35" s="11"/>
-    </row>
-    <row r="36" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>44463</v>
       </c>
@@ -18508,8 +18774,14 @@
         <v>248</v>
       </c>
       <c r="K36" s="11"/>
-    </row>
-    <row r="37" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+    </row>
+    <row r="37" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>44463</v>
       </c>
@@ -18541,8 +18813,14 @@
         <v>250</v>
       </c>
       <c r="K37" s="11"/>
-    </row>
-    <row r="38" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>44463</v>
       </c>
@@ -18574,8 +18852,14 @@
         <v>252</v>
       </c>
       <c r="K38" s="11"/>
-    </row>
-    <row r="39" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>44463</v>
       </c>
@@ -18607,8 +18891,14 @@
         <v>254</v>
       </c>
       <c r="K39" s="11"/>
-    </row>
-    <row r="40" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+    </row>
+    <row r="40" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>44463</v>
       </c>
@@ -18640,8 +18930,14 @@
         <v>256</v>
       </c>
       <c r="K40" s="11"/>
-    </row>
-    <row r="41" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+    </row>
+    <row r="41" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>44463</v>
       </c>
@@ -18673,8 +18969,14 @@
         <v>258</v>
       </c>
       <c r="K41" s="11"/>
-    </row>
-    <row r="42" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+    </row>
+    <row r="42" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>44463</v>
       </c>
@@ -18706,8 +19008,14 @@
         <v>260</v>
       </c>
       <c r="K42" s="11"/>
-    </row>
-    <row r="43" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+    </row>
+    <row r="43" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>44463</v>
       </c>
@@ -18739,8 +19047,14 @@
         <v>262</v>
       </c>
       <c r="K43" s="11"/>
-    </row>
-    <row r="44" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+    </row>
+    <row r="44" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>44463</v>
       </c>
@@ -18772,8 +19086,14 @@
         <v>264</v>
       </c>
       <c r="K44" s="11"/>
-    </row>
-    <row r="45" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+    </row>
+    <row r="45" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>44463</v>
       </c>
@@ -18805,8 +19125,14 @@
         <v>266</v>
       </c>
       <c r="K45" s="11"/>
-    </row>
-    <row r="46" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+    </row>
+    <row r="46" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>44463</v>
       </c>
@@ -18838,8 +19164,14 @@
         <v>268</v>
       </c>
       <c r="K46" s="11"/>
-    </row>
-    <row r="47" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+    </row>
+    <row r="47" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>44463</v>
       </c>
@@ -18871,8 +19203,14 @@
         <v>270</v>
       </c>
       <c r="K47" s="11"/>
-    </row>
-    <row r="48" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+    </row>
+    <row r="48" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>44463</v>
       </c>
@@ -18904,8 +19242,14 @@
         <v>272</v>
       </c>
       <c r="K48" s="11"/>
-    </row>
-    <row r="49" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+    </row>
+    <row r="49" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <v>44463</v>
       </c>
@@ -18937,8 +19281,14 @@
         <v>274</v>
       </c>
       <c r="K49" s="11"/>
-    </row>
-    <row r="50" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+    </row>
+    <row r="50" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>44463</v>
       </c>
@@ -18970,8 +19320,14 @@
         <v>276</v>
       </c>
       <c r="K50" s="11"/>
-    </row>
-    <row r="51" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+    </row>
+    <row r="51" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <v>44463</v>
       </c>
@@ -19003,8 +19359,14 @@
         <v>278</v>
       </c>
       <c r="K51" s="11"/>
-    </row>
-    <row r="52" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+    </row>
+    <row r="52" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <v>44463</v>
       </c>
@@ -19036,8 +19398,14 @@
         <v>280</v>
       </c>
       <c r="K52" s="11"/>
-    </row>
-    <row r="53" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+    </row>
+    <row r="53" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>44463</v>
       </c>
@@ -19069,8 +19437,14 @@
         <v>282</v>
       </c>
       <c r="K53" s="11"/>
-    </row>
-    <row r="54" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+    </row>
+    <row r="54" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>44463</v>
       </c>
@@ -19102,8 +19476,14 @@
         <v>284</v>
       </c>
       <c r="K54" s="11"/>
-    </row>
-    <row r="55" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+    </row>
+    <row r="55" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
         <v>44463</v>
       </c>
@@ -19135,8 +19515,14 @@
         <v>286</v>
       </c>
       <c r="K55" s="11"/>
-    </row>
-    <row r="56" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+    </row>
+    <row r="56" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
         <v>44463</v>
       </c>
@@ -19168,8 +19554,14 @@
         <v>288</v>
       </c>
       <c r="K56" s="11"/>
-    </row>
-    <row r="57" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+    </row>
+    <row r="57" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
         <v>44463</v>
       </c>
@@ -19201,8 +19593,14 @@
         <v>290</v>
       </c>
       <c r="K57" s="11"/>
-    </row>
-    <row r="58" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+    </row>
+    <row r="58" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <v>44463</v>
       </c>
@@ -19234,8 +19632,14 @@
         <v>292</v>
       </c>
       <c r="K58" s="11"/>
-    </row>
-    <row r="59" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+    </row>
+    <row r="59" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
         <v>44463</v>
       </c>
@@ -19267,8 +19671,14 @@
         <v>305</v>
       </c>
       <c r="K59" s="11"/>
-    </row>
-    <row r="60" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+    </row>
+    <row r="60" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
         <v>44463</v>
       </c>
@@ -19300,8 +19710,14 @@
         <v>306</v>
       </c>
       <c r="K60" s="11"/>
-    </row>
-    <row r="61" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+    </row>
+    <row r="61" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
         <v>44463</v>
       </c>
@@ -19333,8 +19749,14 @@
         <v>307</v>
       </c>
       <c r="K61" s="11"/>
-    </row>
-    <row r="62" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+    </row>
+    <row r="62" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
         <v>44463</v>
       </c>
@@ -19366,8 +19788,14 @@
         <v>308</v>
       </c>
       <c r="K62" s="11"/>
-    </row>
-    <row r="63" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+    </row>
+    <row r="63" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
         <v>44463</v>
       </c>
@@ -19399,8 +19827,14 @@
         <v>309</v>
       </c>
       <c r="K63" s="11"/>
-    </row>
-    <row r="64" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+    </row>
+    <row r="64" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
         <v>44463</v>
       </c>
@@ -19432,8 +19866,14 @@
         <v>310</v>
       </c>
       <c r="K64" s="11"/>
-    </row>
-    <row r="65" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+    </row>
+    <row r="65" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
         <v>44463</v>
       </c>
@@ -19465,8 +19905,14 @@
         <v>311</v>
       </c>
       <c r="K65" s="11"/>
-    </row>
-    <row r="66" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+    </row>
+    <row r="66" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9">
         <v>44463</v>
       </c>
@@ -19498,8 +19944,14 @@
         <v>312</v>
       </c>
       <c r="K66" s="11"/>
-    </row>
-    <row r="67" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+    </row>
+    <row r="67" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9">
         <v>44463</v>
       </c>
@@ -19531,8 +19983,14 @@
         <v>313</v>
       </c>
       <c r="K67" s="11"/>
-    </row>
-    <row r="68" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+    </row>
+    <row r="68" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9">
         <v>44463</v>
       </c>
@@ -19564,8 +20022,14 @@
         <v>314</v>
       </c>
       <c r="K68" s="11"/>
-    </row>
-    <row r="69" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+    </row>
+    <row r="69" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
         <v>44463</v>
       </c>
@@ -19597,8 +20061,14 @@
         <v>315</v>
       </c>
       <c r="K69" s="11"/>
-    </row>
-    <row r="70" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+    </row>
+    <row r="70" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9">
         <v>44463</v>
       </c>
@@ -19630,8 +20100,14 @@
         <v>316</v>
       </c>
       <c r="K70" s="11"/>
-    </row>
-    <row r="71" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+    </row>
+    <row r="71" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9">
         <v>44463</v>
       </c>
@@ -19663,8 +20139,14 @@
         <v>317</v>
       </c>
       <c r="K71" s="11"/>
-    </row>
-    <row r="72" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+    </row>
+    <row r="72" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9">
         <v>44463</v>
       </c>
@@ -19696,8 +20178,14 @@
         <v>318</v>
       </c>
       <c r="K72" s="11"/>
-    </row>
-    <row r="73" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+    </row>
+    <row r="73" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
         <v>44463</v>
       </c>
@@ -19729,8 +20217,14 @@
         <v>319</v>
       </c>
       <c r="K73" s="11"/>
-    </row>
-    <row r="74" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+    </row>
+    <row r="74" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9">
         <v>44463</v>
       </c>
@@ -19762,8 +20256,14 @@
         <v>320</v>
       </c>
       <c r="K74" s="11"/>
-    </row>
-    <row r="75" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+    </row>
+    <row r="75" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9">
         <v>44463</v>
       </c>
@@ -19795,8 +20295,14 @@
         <v>321</v>
       </c>
       <c r="K75" s="11"/>
-    </row>
-    <row r="76" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+    </row>
+    <row r="76" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9">
         <v>44463</v>
       </c>
@@ -19828,8 +20334,14 @@
         <v>322</v>
       </c>
       <c r="K76" s="11"/>
-    </row>
-    <row r="77" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+    </row>
+    <row r="77" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9">
         <v>44463</v>
       </c>
@@ -19861,8 +20373,14 @@
         <v>323</v>
       </c>
       <c r="K77" s="11"/>
-    </row>
-    <row r="78" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+    </row>
+    <row r="78" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9">
         <v>44463</v>
       </c>
@@ -19894,8 +20412,14 @@
         <v>324</v>
       </c>
       <c r="K78" s="11"/>
-    </row>
-    <row r="79" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+    </row>
+    <row r="79" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9">
         <v>44463</v>
       </c>
@@ -19927,8 +20451,14 @@
         <v>325</v>
       </c>
       <c r="K79" s="11"/>
-    </row>
-    <row r="80" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+    </row>
+    <row r="80" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9">
         <v>44463</v>
       </c>
@@ -19960,8 +20490,14 @@
         <v>326</v>
       </c>
       <c r="K80" s="11"/>
-    </row>
-    <row r="81" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="9">
         <v>44463</v>
       </c>
@@ -19993,8 +20529,14 @@
         <v>327</v>
       </c>
       <c r="K81" s="11"/>
-    </row>
-    <row r="82" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+    </row>
+    <row r="82" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9">
         <v>44463</v>
       </c>
@@ -20026,8 +20568,14 @@
         <v>328</v>
       </c>
       <c r="K82" s="11"/>
-    </row>
-    <row r="83" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+    </row>
+    <row r="83" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9">
         <v>44463</v>
       </c>
@@ -20059,8 +20607,14 @@
         <v>329</v>
       </c>
       <c r="K83" s="11"/>
-    </row>
-    <row r="84" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+    </row>
+    <row r="84" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="9">
         <v>44463</v>
       </c>
@@ -20092,8 +20646,14 @@
         <v>330</v>
       </c>
       <c r="K84" s="11"/>
-    </row>
-    <row r="85" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+    </row>
+    <row r="85" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9">
         <v>44463</v>
       </c>
@@ -20125,8 +20685,14 @@
         <v>331</v>
       </c>
       <c r="K85" s="11"/>
-    </row>
-    <row r="86" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+    </row>
+    <row r="86" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="9">
         <v>44463</v>
       </c>
@@ -20158,8 +20724,14 @@
         <v>332</v>
       </c>
       <c r="K86" s="11"/>
-    </row>
-    <row r="87" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+    </row>
+    <row r="87" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="9">
         <v>44463</v>
       </c>
@@ -20191,8 +20763,14 @@
         <v>333</v>
       </c>
       <c r="K87" s="11"/>
-    </row>
-    <row r="88" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+    </row>
+    <row r="88" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9">
         <v>44463</v>
       </c>
@@ -20224,8 +20802,14 @@
         <v>334</v>
       </c>
       <c r="K88" s="11"/>
-    </row>
-    <row r="89" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+    </row>
+    <row r="89" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9">
         <v>44463</v>
       </c>
@@ -20257,8 +20841,14 @@
         <v>335</v>
       </c>
       <c r="K89" s="11"/>
-    </row>
-    <row r="90" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+    </row>
+    <row r="90" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9">
         <v>44463</v>
       </c>
@@ -20290,8 +20880,14 @@
         <v>336</v>
       </c>
       <c r="K90" s="11"/>
-    </row>
-    <row r="91" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+    </row>
+    <row r="91" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9">
         <v>44463</v>
       </c>
@@ -20323,8 +20919,14 @@
         <v>337</v>
       </c>
       <c r="K91" s="11"/>
-    </row>
-    <row r="92" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+    </row>
+    <row r="92" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9">
         <v>44463</v>
       </c>
@@ -20356,8 +20958,14 @@
         <v>338</v>
       </c>
       <c r="K92" s="11"/>
-    </row>
-    <row r="93" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+    </row>
+    <row r="93" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9">
         <v>44463</v>
       </c>
@@ -20389,8 +20997,14 @@
         <v>339</v>
       </c>
       <c r="K93" s="11"/>
-    </row>
-    <row r="94" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+    </row>
+    <row r="94" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9">
         <v>44463</v>
       </c>
@@ -20422,8 +21036,14 @@
         <v>340</v>
       </c>
       <c r="K94" s="11"/>
-    </row>
-    <row r="95" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+    </row>
+    <row r="95" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9">
         <v>44463</v>
       </c>
@@ -20455,8 +21075,14 @@
         <v>341</v>
       </c>
       <c r="K95" s="11"/>
-    </row>
-    <row r="96" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+    </row>
+    <row r="96" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9">
         <v>44463</v>
       </c>
@@ -20488,8 +21114,14 @@
         <v>342</v>
       </c>
       <c r="K96" s="11"/>
-    </row>
-    <row r="97" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+    </row>
+    <row r="97" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9">
         <v>44463</v>
       </c>
@@ -20521,8 +21153,14 @@
         <v>343</v>
       </c>
       <c r="K97" s="11"/>
-    </row>
-    <row r="98" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+    </row>
+    <row r="98" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9">
         <v>44463</v>
       </c>
@@ -20554,8 +21192,14 @@
         <v>344</v>
       </c>
       <c r="K98" s="11"/>
-    </row>
-    <row r="99" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+    </row>
+    <row r="99" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9">
         <v>44463</v>
       </c>
@@ -20587,8 +21231,14 @@
         <v>345</v>
       </c>
       <c r="K99" s="11"/>
-    </row>
-    <row r="100" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+    </row>
+    <row r="100" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9">
         <v>44463</v>
       </c>
@@ -20620,8 +21270,14 @@
         <v>346</v>
       </c>
       <c r="K100" s="11"/>
-    </row>
-    <row r="101" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+    </row>
+    <row r="101" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="9">
         <v>44463</v>
       </c>
@@ -20653,8 +21309,14 @@
         <v>347</v>
       </c>
       <c r="K101" s="11"/>
-    </row>
-    <row r="102" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+    </row>
+    <row r="102" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9">
         <v>44463</v>
       </c>
@@ -20686,8 +21348,14 @@
         <v>348</v>
       </c>
       <c r="K102" s="11"/>
-    </row>
-    <row r="103" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+    </row>
+    <row r="103" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9">
         <v>44463</v>
       </c>
@@ -20719,8 +21387,14 @@
         <v>349</v>
       </c>
       <c r="K103" s="11"/>
-    </row>
-    <row r="104" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+    </row>
+    <row r="104" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9">
         <v>44463</v>
       </c>
@@ -20752,8 +21426,14 @@
         <v>350</v>
       </c>
       <c r="K104" s="11"/>
-    </row>
-    <row r="105" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2"/>
+    </row>
+    <row r="105" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9">
         <v>44463</v>
       </c>
@@ -20785,8 +21465,14 @@
         <v>351</v>
       </c>
       <c r="K105" s="11"/>
-    </row>
-    <row r="106" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+    </row>
+    <row r="106" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9">
         <v>44463</v>
       </c>
@@ -20818,8 +21504,14 @@
         <v>352</v>
       </c>
       <c r="K106" s="11"/>
-    </row>
-    <row r="107" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+    </row>
+    <row r="107" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9">
         <v>44463</v>
       </c>
@@ -20851,8 +21543,14 @@
         <v>353</v>
       </c>
       <c r="K107" s="11"/>
-    </row>
-    <row r="108" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+    </row>
+    <row r="108" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="9">
         <v>44463</v>
       </c>
@@ -20884,8 +21582,14 @@
         <v>354</v>
       </c>
       <c r="K108" s="11"/>
-    </row>
-    <row r="109" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+    </row>
+    <row r="109" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="9">
         <v>44463</v>
       </c>
@@ -20917,8 +21621,14 @@
         <v>355</v>
       </c>
       <c r="K109" s="11"/>
-    </row>
-    <row r="110" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+    </row>
+    <row r="110" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9">
         <v>44463</v>
       </c>
@@ -20950,8 +21660,14 @@
         <v>356</v>
       </c>
       <c r="K110" s="11"/>
-    </row>
-    <row r="111" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+    </row>
+    <row r="111" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9">
         <v>44463</v>
       </c>
@@ -20983,8 +21699,14 @@
         <v>357</v>
       </c>
       <c r="K111" s="11"/>
-    </row>
-    <row r="112" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="2"/>
+    </row>
+    <row r="112" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9">
         <v>44463</v>
       </c>
@@ -21016,8 +21738,14 @@
         <v>358</v>
       </c>
       <c r="K112" s="11"/>
-    </row>
-    <row r="113" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="2"/>
+    </row>
+    <row r="113" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9">
         <v>44463</v>
       </c>
@@ -21049,8 +21777,14 @@
         <v>359</v>
       </c>
       <c r="K113" s="11"/>
-    </row>
-    <row r="114" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+    </row>
+    <row r="114" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="9">
         <v>44463</v>
       </c>
@@ -21082,8 +21816,14 @@
         <v>410</v>
       </c>
       <c r="K114" s="11"/>
-    </row>
-    <row r="115" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="2"/>
+    </row>
+    <row r="115" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="9">
         <v>44463</v>
       </c>
@@ -21115,8 +21855,14 @@
         <v>412</v>
       </c>
       <c r="K115" s="11"/>
-    </row>
-    <row r="116" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+    </row>
+    <row r="116" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9">
         <v>44463</v>
       </c>
@@ -21148,8 +21894,14 @@
         <v>414</v>
       </c>
       <c r="K116" s="11"/>
-    </row>
-    <row r="117" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
+    </row>
+    <row r="117" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="9">
         <v>44463</v>
       </c>
@@ -21181,8 +21933,14 @@
         <v>370</v>
       </c>
       <c r="K117" s="11"/>
-    </row>
-    <row r="118" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+    </row>
+    <row r="118" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9">
         <v>44463</v>
       </c>
@@ -21214,8 +21972,14 @@
         <v>374</v>
       </c>
       <c r="K118" s="11"/>
-    </row>
-    <row r="119" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
+    </row>
+    <row r="119" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9">
         <v>44463</v>
       </c>
@@ -21247,8 +22011,14 @@
         <v>376</v>
       </c>
       <c r="K119" s="11"/>
-    </row>
-    <row r="120" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+    </row>
+    <row r="120" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="9">
         <v>44463</v>
       </c>
@@ -21280,8 +22050,14 @@
         <v>378</v>
       </c>
       <c r="K120" s="11"/>
-    </row>
-    <row r="121" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="2"/>
+    </row>
+    <row r="121" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9">
         <v>44463</v>
       </c>
@@ -21313,8 +22089,14 @@
         <v>419</v>
       </c>
       <c r="K121" s="11"/>
-    </row>
-    <row r="122" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
+      <c r="P121" s="2"/>
+      <c r="Q121" s="2"/>
+    </row>
+    <row r="122" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="9">
         <v>44463</v>
       </c>
@@ -21346,8 +22128,14 @@
         <v>421</v>
       </c>
       <c r="K122" s="11"/>
-    </row>
-    <row r="123" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
+      <c r="P122" s="2"/>
+      <c r="Q122" s="2"/>
+    </row>
+    <row r="123" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="9">
         <v>44463</v>
       </c>
@@ -21379,8 +22167,14 @@
         <v>423</v>
       </c>
       <c r="K123" s="11"/>
-    </row>
-    <row r="124" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
+      <c r="P123" s="2"/>
+      <c r="Q123" s="2"/>
+    </row>
+    <row r="124" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9">
         <v>44463</v>
       </c>
@@ -21412,8 +22206,14 @@
         <v>380</v>
       </c>
       <c r="K124" s="11"/>
-    </row>
-    <row r="125" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+      <c r="P124" s="2"/>
+      <c r="Q124" s="2"/>
+    </row>
+    <row r="125" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="9">
         <v>44463</v>
       </c>
@@ -21445,8 +22245,14 @@
         <v>382</v>
       </c>
       <c r="K125" s="11"/>
-    </row>
-    <row r="126" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+      <c r="P125" s="2"/>
+      <c r="Q125" s="2"/>
+    </row>
+    <row r="126" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="9">
         <v>44463</v>
       </c>
@@ -21478,8 +22284,14 @@
         <v>384</v>
       </c>
       <c r="K126" s="11"/>
-    </row>
-    <row r="127" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="2"/>
+    </row>
+    <row r="127" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="9">
         <v>44463</v>
       </c>
@@ -21511,8 +22323,14 @@
         <v>386</v>
       </c>
       <c r="K127" s="11"/>
-    </row>
-    <row r="128" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
+      <c r="O127" s="2"/>
+      <c r="P127" s="2"/>
+      <c r="Q127" s="2"/>
+    </row>
+    <row r="128" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="9">
         <v>44463</v>
       </c>
@@ -21544,8 +22362,14 @@
         <v>388</v>
       </c>
       <c r="K128" s="11"/>
-    </row>
-    <row r="129" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
+      <c r="Q128" s="2"/>
+    </row>
+    <row r="129" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9">
         <v>44463</v>
       </c>
@@ -21577,8 +22401,14 @@
         <v>390</v>
       </c>
       <c r="K129" s="11"/>
-    </row>
-    <row r="130" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+    </row>
+    <row r="130" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9">
         <v>44463</v>
       </c>
@@ -21610,8 +22440,14 @@
         <v>392</v>
       </c>
       <c r="K130" s="11"/>
-    </row>
-    <row r="131" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+    </row>
+    <row r="131" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="9">
         <v>44463</v>
       </c>
@@ -21643,8 +22479,14 @@
         <v>394</v>
       </c>
       <c r="K131" s="11"/>
-    </row>
-    <row r="132" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+      <c r="P131" s="2"/>
+      <c r="Q131" s="2"/>
+    </row>
+    <row r="132" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9">
         <v>44463</v>
       </c>
@@ -21676,8 +22518,14 @@
         <v>396</v>
       </c>
       <c r="K132" s="11"/>
-    </row>
-    <row r="133" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
+    </row>
+    <row r="133" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="9">
         <v>44463</v>
       </c>
@@ -21709,8 +22557,14 @@
         <v>398</v>
       </c>
       <c r="K133" s="11"/>
-    </row>
-    <row r="134" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+      <c r="P133" s="2"/>
+      <c r="Q133" s="2"/>
+    </row>
+    <row r="134" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="9">
         <v>44463</v>
       </c>
@@ -21742,8 +22596,14 @@
         <v>400</v>
       </c>
       <c r="K134" s="11"/>
-    </row>
-    <row r="135" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L134" s="2"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+      <c r="O134" s="2"/>
+      <c r="P134" s="2"/>
+      <c r="Q134" s="2"/>
+    </row>
+    <row r="135" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="9">
         <v>44463</v>
       </c>
@@ -21775,8 +22635,14 @@
         <v>402</v>
       </c>
       <c r="K135" s="11"/>
-    </row>
-    <row r="136" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
+      <c r="Q135" s="2"/>
+    </row>
+    <row r="136" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="9">
         <v>44463</v>
       </c>
@@ -21808,8 +22674,14 @@
         <v>404</v>
       </c>
       <c r="K136" s="11"/>
-    </row>
-    <row r="137" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
+      <c r="O136" s="2"/>
+      <c r="P136" s="2"/>
+      <c r="Q136" s="2"/>
+    </row>
+    <row r="137" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137" s="9">
         <v>44463</v>
       </c>
@@ -21841,8 +22713,14 @@
         <v>406</v>
       </c>
       <c r="K137" s="11"/>
-    </row>
-    <row r="138" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L137" s="16"/>
+      <c r="M137" s="16"/>
+      <c r="N137" s="16"/>
+      <c r="O137" s="16"/>
+      <c r="P137" s="16"/>
+      <c r="Q137" s="16"/>
+    </row>
+    <row r="138" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138" s="9">
         <v>44463</v>
       </c>
@@ -21874,8 +22752,14 @@
         <v>408</v>
       </c>
       <c r="K138" s="11"/>
-    </row>
-    <row r="139" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L138" s="16"/>
+      <c r="M138" s="16"/>
+      <c r="N138" s="16"/>
+      <c r="O138" s="16"/>
+      <c r="P138" s="16"/>
+      <c r="Q138" s="16"/>
+    </row>
+    <row r="139" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139" s="9">
         <v>44463</v>
       </c>
@@ -21907,8 +22791,14 @@
         <v>438</v>
       </c>
       <c r="K139" s="11"/>
-    </row>
-    <row r="140" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L139" s="16"/>
+      <c r="M139" s="16"/>
+      <c r="N139" s="16"/>
+      <c r="O139" s="16"/>
+      <c r="P139" s="16"/>
+      <c r="Q139" s="16"/>
+    </row>
+    <row r="140" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" s="9">
         <v>44463</v>
       </c>
@@ -21940,8 +22830,14 @@
         <v>440</v>
       </c>
       <c r="K140" s="11"/>
-    </row>
-    <row r="141" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L140" s="16"/>
+      <c r="M140" s="16"/>
+      <c r="N140" s="16"/>
+      <c r="O140" s="16"/>
+      <c r="P140" s="16"/>
+      <c r="Q140" s="16"/>
+    </row>
+    <row r="141" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141" s="9">
         <v>44463</v>
       </c>
@@ -21973,8 +22869,14 @@
         <v>442</v>
       </c>
       <c r="K141" s="11"/>
-    </row>
-    <row r="142" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L141" s="16"/>
+      <c r="M141" s="16"/>
+      <c r="N141" s="16"/>
+      <c r="O141" s="16"/>
+      <c r="P141" s="16"/>
+      <c r="Q141" s="16"/>
+    </row>
+    <row r="142" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" s="9">
         <v>44463</v>
       </c>
@@ -22006,8 +22908,14 @@
         <v>444</v>
       </c>
       <c r="K142" s="11"/>
-    </row>
-    <row r="143" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L142" s="16"/>
+      <c r="M142" s="16"/>
+      <c r="N142" s="16"/>
+      <c r="O142" s="16"/>
+      <c r="P142" s="16"/>
+      <c r="Q142" s="16"/>
+    </row>
+    <row r="143" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143" s="9">
         <v>44463</v>
       </c>
@@ -22039,8 +22947,14 @@
         <v>471</v>
       </c>
       <c r="K143" s="11"/>
-    </row>
-    <row r="144" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L143" s="16"/>
+      <c r="M143" s="16"/>
+      <c r="N143" s="16"/>
+      <c r="O143" s="16"/>
+      <c r="P143" s="16"/>
+      <c r="Q143" s="16"/>
+    </row>
+    <row r="144" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144" s="9">
         <v>44463</v>
       </c>
@@ -22072,8 +22986,14 @@
         <v>473</v>
       </c>
       <c r="K144" s="11"/>
-    </row>
-    <row r="145" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L144" s="16"/>
+      <c r="M144" s="16"/>
+      <c r="N144" s="16"/>
+      <c r="O144" s="16"/>
+      <c r="P144" s="16"/>
+      <c r="Q144" s="16"/>
+    </row>
+    <row r="145" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145" s="9">
         <v>44463</v>
       </c>
@@ -22105,8 +23025,14 @@
         <v>475</v>
       </c>
       <c r="K145" s="11"/>
-    </row>
-    <row r="146" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L145" s="16"/>
+      <c r="M145" s="16"/>
+      <c r="N145" s="16"/>
+      <c r="O145" s="16"/>
+      <c r="P145" s="16"/>
+      <c r="Q145" s="16"/>
+    </row>
+    <row r="146" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146" s="9">
         <v>44463</v>
       </c>
@@ -22138,8 +23064,14 @@
         <v>477</v>
       </c>
       <c r="K146" s="11"/>
-    </row>
-    <row r="147" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L146" s="16"/>
+      <c r="M146" s="16"/>
+      <c r="N146" s="16"/>
+      <c r="O146" s="16"/>
+      <c r="P146" s="16"/>
+      <c r="Q146" s="16"/>
+    </row>
+    <row r="147" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147" s="9">
         <v>44463</v>
       </c>
@@ -22171,8 +23103,14 @@
         <v>479</v>
       </c>
       <c r="K147" s="11"/>
-    </row>
-    <row r="148" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L147" s="16"/>
+      <c r="M147" s="16"/>
+      <c r="N147" s="16"/>
+      <c r="O147" s="16"/>
+      <c r="P147" s="16"/>
+      <c r="Q147" s="16"/>
+    </row>
+    <row r="148" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148" s="9">
         <v>44463</v>
       </c>
@@ -22204,8 +23142,14 @@
         <v>481</v>
       </c>
       <c r="K148" s="11"/>
-    </row>
-    <row r="149" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L148" s="16"/>
+      <c r="M148" s="16"/>
+      <c r="N148" s="16"/>
+      <c r="O148" s="16"/>
+      <c r="P148" s="16"/>
+      <c r="Q148" s="16"/>
+    </row>
+    <row r="149" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149" s="9">
         <v>44463</v>
       </c>
@@ -22237,8 +23181,14 @@
         <v>483</v>
       </c>
       <c r="K149" s="11"/>
-    </row>
-    <row r="150" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L149" s="16"/>
+      <c r="M149" s="16"/>
+      <c r="N149" s="16"/>
+      <c r="O149" s="16"/>
+      <c r="P149" s="16"/>
+      <c r="Q149" s="16"/>
+    </row>
+    <row r="150" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150" s="9">
         <v>44463</v>
       </c>
@@ -22270,8 +23220,14 @@
         <v>492</v>
       </c>
       <c r="K150" s="11"/>
-    </row>
-    <row r="151" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L150" s="16"/>
+      <c r="M150" s="16"/>
+      <c r="N150" s="16"/>
+      <c r="O150" s="16"/>
+      <c r="P150" s="16"/>
+      <c r="Q150" s="16"/>
+    </row>
+    <row r="151" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151" s="9">
         <v>44463</v>
       </c>
@@ -22303,8 +23259,14 @@
         <v>493</v>
       </c>
       <c r="K151" s="11"/>
-    </row>
-    <row r="152" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L151" s="16"/>
+      <c r="M151" s="16"/>
+      <c r="N151" s="16"/>
+      <c r="O151" s="16"/>
+      <c r="P151" s="16"/>
+      <c r="Q151" s="16"/>
+    </row>
+    <row r="152" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A152" s="9">
         <v>44463</v>
       </c>
@@ -22336,8 +23298,14 @@
         <v>494</v>
       </c>
       <c r="K152" s="11"/>
-    </row>
-    <row r="153" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L152" s="16"/>
+      <c r="M152" s="16"/>
+      <c r="N152" s="16"/>
+      <c r="O152" s="16"/>
+      <c r="P152" s="16"/>
+      <c r="Q152" s="16"/>
+    </row>
+    <row r="153" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153" s="9">
         <v>44463</v>
       </c>
@@ -22369,8 +23337,14 @@
         <v>495</v>
       </c>
       <c r="K153" s="11"/>
-    </row>
-    <row r="154" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L153" s="16"/>
+      <c r="M153" s="16"/>
+      <c r="N153" s="16"/>
+      <c r="O153" s="16"/>
+      <c r="P153" s="16"/>
+      <c r="Q153" s="16"/>
+    </row>
+    <row r="154" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A154" s="9">
         <v>44463</v>
       </c>
@@ -22402,8 +23376,14 @@
         <v>496</v>
       </c>
       <c r="K154" s="11"/>
-    </row>
-    <row r="155" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L154" s="16"/>
+      <c r="M154" s="16"/>
+      <c r="N154" s="16"/>
+      <c r="O154" s="16"/>
+      <c r="P154" s="16"/>
+      <c r="Q154" s="16"/>
+    </row>
+    <row r="155" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A155" s="9">
         <v>44463</v>
       </c>
@@ -22435,8 +23415,14 @@
         <v>497</v>
       </c>
       <c r="K155" s="11"/>
-    </row>
-    <row r="156" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L155" s="16"/>
+      <c r="M155" s="16"/>
+      <c r="N155" s="16"/>
+      <c r="O155" s="16"/>
+      <c r="P155" s="16"/>
+      <c r="Q155" s="16"/>
+    </row>
+    <row r="156" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A156" s="9">
         <v>44463</v>
       </c>
@@ -22468,8 +23454,14 @@
         <v>498</v>
       </c>
       <c r="K156" s="11"/>
-    </row>
-    <row r="157" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L156" s="16"/>
+      <c r="M156" s="16"/>
+      <c r="N156" s="16"/>
+      <c r="O156" s="16"/>
+      <c r="P156" s="16"/>
+      <c r="Q156" s="16"/>
+    </row>
+    <row r="157" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157" s="9">
         <v>44463</v>
       </c>
@@ -22501,8 +23493,14 @@
         <v>502</v>
       </c>
       <c r="K157" s="11"/>
-    </row>
-    <row r="158" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L157" s="16"/>
+      <c r="M157" s="16"/>
+      <c r="N157" s="16"/>
+      <c r="O157" s="16"/>
+      <c r="P157" s="16"/>
+      <c r="Q157" s="16"/>
+    </row>
+    <row r="158" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A158" s="9">
         <v>44463</v>
       </c>
@@ -22534,8 +23532,14 @@
         <v>504</v>
       </c>
       <c r="K158" s="11"/>
-    </row>
-    <row r="159" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L158" s="16"/>
+      <c r="M158" s="16"/>
+      <c r="N158" s="16"/>
+      <c r="O158" s="16"/>
+      <c r="P158" s="16"/>
+      <c r="Q158" s="16"/>
+    </row>
+    <row r="159" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159" s="9">
         <v>44463</v>
       </c>
@@ -22567,8 +23571,14 @@
         <v>506</v>
       </c>
       <c r="K159" s="11"/>
-    </row>
-    <row r="160" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L159" s="16"/>
+      <c r="M159" s="16"/>
+      <c r="N159" s="16"/>
+      <c r="O159" s="16"/>
+      <c r="P159" s="16"/>
+      <c r="Q159" s="16"/>
+    </row>
+    <row r="160" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160" s="9">
         <v>44463</v>
       </c>
@@ -22600,8 +23610,14 @@
         <v>510</v>
       </c>
       <c r="K160" s="11"/>
-    </row>
-    <row r="161" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L160" s="16"/>
+      <c r="M160" s="16"/>
+      <c r="N160" s="16"/>
+      <c r="O160" s="16"/>
+      <c r="P160" s="16"/>
+      <c r="Q160" s="16"/>
+    </row>
+    <row r="161" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A161" s="9">
         <v>44463</v>
       </c>
@@ -22633,8 +23649,14 @@
         <v>517</v>
       </c>
       <c r="K161" s="11"/>
-    </row>
-    <row r="162" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L161" s="16"/>
+      <c r="M161" s="16"/>
+      <c r="N161" s="16"/>
+      <c r="O161" s="16"/>
+      <c r="P161" s="16"/>
+      <c r="Q161" s="16"/>
+    </row>
+    <row r="162" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A162" s="9">
         <v>44463</v>
       </c>
@@ -22666,8 +23688,14 @@
         <v>527</v>
       </c>
       <c r="K162" s="11"/>
-    </row>
-    <row r="163" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L162" s="16"/>
+      <c r="M162" s="16"/>
+      <c r="N162" s="16"/>
+      <c r="O162" s="16"/>
+      <c r="P162" s="16"/>
+      <c r="Q162" s="16"/>
+    </row>
+    <row r="163" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A163" s="9">
         <v>44463</v>
       </c>
@@ -22699,8 +23727,14 @@
         <v>529</v>
       </c>
       <c r="K163" s="11"/>
-    </row>
-    <row r="164" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L163" s="16"/>
+      <c r="M163" s="16"/>
+      <c r="N163" s="16"/>
+      <c r="O163" s="16"/>
+      <c r="P163" s="16"/>
+      <c r="Q163" s="16"/>
+    </row>
+    <row r="164" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A164" s="9">
         <v>44463</v>
       </c>
@@ -22732,8 +23766,14 @@
         <v>531</v>
       </c>
       <c r="K164" s="11"/>
-    </row>
-    <row r="165" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L164" s="16"/>
+      <c r="M164" s="16"/>
+      <c r="N164" s="16"/>
+      <c r="O164" s="16"/>
+      <c r="P164" s="16"/>
+      <c r="Q164" s="16"/>
+    </row>
+    <row r="165" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A165" s="9">
         <v>44463</v>
       </c>
@@ -22765,8 +23805,14 @@
         <v>533</v>
       </c>
       <c r="K165" s="11"/>
-    </row>
-    <row r="166" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L165" s="16"/>
+      <c r="M165" s="16"/>
+      <c r="N165" s="16"/>
+      <c r="O165" s="16"/>
+      <c r="P165" s="16"/>
+      <c r="Q165" s="16"/>
+    </row>
+    <row r="166" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A166" s="9">
         <v>44463</v>
       </c>
@@ -22798,8 +23844,14 @@
         <v>535</v>
       </c>
       <c r="K166" s="11"/>
-    </row>
-    <row r="167" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L166" s="16"/>
+      <c r="M166" s="16"/>
+      <c r="N166" s="16"/>
+      <c r="O166" s="16"/>
+      <c r="P166" s="16"/>
+      <c r="Q166" s="16"/>
+    </row>
+    <row r="167" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A167" s="9">
         <v>44463</v>
       </c>
@@ -22831,8 +23883,14 @@
         <v>520</v>
       </c>
       <c r="K167" s="11"/>
-    </row>
-    <row r="168" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L167" s="16"/>
+      <c r="M167" s="16"/>
+      <c r="N167" s="16"/>
+      <c r="O167" s="16"/>
+      <c r="P167" s="16"/>
+      <c r="Q167" s="16"/>
+    </row>
+    <row r="168" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A168" s="9">
         <v>44463</v>
       </c>
@@ -22864,8 +23922,14 @@
         <v>522</v>
       </c>
       <c r="K168" s="11"/>
-    </row>
-    <row r="169" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L168" s="16"/>
+      <c r="M168" s="16"/>
+      <c r="N168" s="16"/>
+      <c r="O168" s="16"/>
+      <c r="P168" s="16"/>
+      <c r="Q168" s="16"/>
+    </row>
+    <row r="169" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A169" s="9">
         <v>44463</v>
       </c>
@@ -22897,8 +23961,14 @@
         <v>610</v>
       </c>
       <c r="K169" s="11"/>
-    </row>
-    <row r="170" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L169" s="16"/>
+      <c r="M169" s="16"/>
+      <c r="N169" s="16"/>
+      <c r="O169" s="16"/>
+      <c r="P169" s="16"/>
+      <c r="Q169" s="16"/>
+    </row>
+    <row r="170" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A170" s="9">
         <v>44463</v>
       </c>
@@ -22930,8 +24000,14 @@
         <v>545</v>
       </c>
       <c r="K170" s="11"/>
-    </row>
-    <row r="171" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L170" s="16"/>
+      <c r="M170" s="16"/>
+      <c r="N170" s="16"/>
+      <c r="O170" s="16"/>
+      <c r="P170" s="16"/>
+      <c r="Q170" s="16"/>
+    </row>
+    <row r="171" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A171" s="9">
         <v>44463</v>
       </c>
@@ -22963,8 +24039,14 @@
         <v>594</v>
       </c>
       <c r="K171" s="11"/>
-    </row>
-    <row r="172" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="L171" s="16"/>
+      <c r="M171" s="16"/>
+      <c r="N171" s="16"/>
+      <c r="O171" s="16"/>
+      <c r="P171" s="16"/>
+      <c r="Q171" s="16"/>
+    </row>
+    <row r="172" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A172" s="9">
         <v>44463</v>
       </c>
@@ -22996,8 +24078,14 @@
         <v>614</v>
       </c>
       <c r="K172" s="11"/>
-    </row>
-    <row r="173" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L172" s="16"/>
+      <c r="M172" s="16"/>
+      <c r="N172" s="16"/>
+      <c r="O172" s="16"/>
+      <c r="P172" s="16"/>
+      <c r="Q172" s="16"/>
+    </row>
+    <row r="173" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A173" s="9">
         <v>44463</v>
       </c>
@@ -23029,8 +24117,14 @@
         <v>616</v>
       </c>
       <c r="K173" s="11"/>
-    </row>
-    <row r="174" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="L173" s="16"/>
+      <c r="M173" s="16"/>
+      <c r="N173" s="16"/>
+      <c r="O173" s="16"/>
+      <c r="P173" s="16"/>
+      <c r="Q173" s="16"/>
+    </row>
+    <row r="174" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A174" s="9">
         <v>44463</v>
       </c>
@@ -23062,8 +24156,14 @@
         <v>619</v>
       </c>
       <c r="K174" s="11"/>
-    </row>
-    <row r="175" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L174" s="16"/>
+      <c r="M174" s="16"/>
+      <c r="N174" s="16"/>
+      <c r="O174" s="16"/>
+      <c r="P174" s="16"/>
+      <c r="Q174" s="16"/>
+    </row>
+    <row r="175" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A175" s="9">
         <v>44463</v>
       </c>
@@ -23095,8 +24195,14 @@
         <v>620</v>
       </c>
       <c r="K175" s="11"/>
-    </row>
-    <row r="176" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L175" s="16"/>
+      <c r="M175" s="16"/>
+      <c r="N175" s="16"/>
+      <c r="O175" s="16"/>
+      <c r="P175" s="16"/>
+      <c r="Q175" s="16"/>
+    </row>
+    <row r="176" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A176" s="9">
         <v>44463</v>
       </c>
@@ -23130,8 +24236,18 @@
       <c r="K176" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L176" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M176" s="16"/>
+      <c r="N176" s="16"/>
+      <c r="O176" s="16"/>
+      <c r="P176" s="16"/>
+      <c r="Q176" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A177" s="9">
         <v>44463</v>
       </c>
@@ -23165,8 +24281,18 @@
       <c r="K177" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L177" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M177" s="16"/>
+      <c r="N177" s="16"/>
+      <c r="O177" s="16"/>
+      <c r="P177" s="16"/>
+      <c r="Q177" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A178" s="9">
         <v>44463</v>
       </c>
@@ -23200,8 +24326,18 @@
       <c r="K178" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L178" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M178" s="16"/>
+      <c r="N178" s="16"/>
+      <c r="O178" s="16"/>
+      <c r="P178" s="16"/>
+      <c r="Q178" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A179" s="9">
         <v>44463</v>
       </c>
@@ -23235,8 +24371,18 @@
       <c r="K179" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L179" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M179" s="16"/>
+      <c r="N179" s="16"/>
+      <c r="O179" s="16"/>
+      <c r="P179" s="16"/>
+      <c r="Q179" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A180" s="9">
         <v>44463</v>
       </c>
@@ -23270,8 +24416,18 @@
       <c r="K180" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L180" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M180" s="16"/>
+      <c r="N180" s="16"/>
+      <c r="O180" s="16"/>
+      <c r="P180" s="16"/>
+      <c r="Q180" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A181" s="9">
         <v>44463</v>
       </c>
@@ -23305,8 +24461,18 @@
       <c r="K181" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L181" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M181" s="16"/>
+      <c r="N181" s="16"/>
+      <c r="O181" s="16"/>
+      <c r="P181" s="16"/>
+      <c r="Q181" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A182" s="9">
         <v>44463</v>
       </c>
@@ -23340,8 +24506,18 @@
       <c r="K182" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L182" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M182" s="16"/>
+      <c r="N182" s="16"/>
+      <c r="O182" s="16"/>
+      <c r="P182" s="16"/>
+      <c r="Q182" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A183" s="9">
         <v>44463</v>
       </c>
@@ -23375,8 +24551,18 @@
       <c r="K183" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L183" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M183" s="16"/>
+      <c r="N183" s="16"/>
+      <c r="O183" s="16"/>
+      <c r="P183" s="16"/>
+      <c r="Q183" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A184" s="9">
         <v>44463</v>
       </c>
@@ -23410,8 +24596,18 @@
       <c r="K184" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L184" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M184" s="16"/>
+      <c r="N184" s="16"/>
+      <c r="O184" s="16"/>
+      <c r="P184" s="16"/>
+      <c r="Q184" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A185" s="9">
         <v>44463</v>
       </c>
@@ -23445,8 +24641,18 @@
       <c r="K185" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L185" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M185" s="16"/>
+      <c r="N185" s="16"/>
+      <c r="O185" s="16"/>
+      <c r="P185" s="16"/>
+      <c r="Q185" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A186" s="9">
         <v>44463</v>
       </c>
@@ -23480,8 +24686,18 @@
       <c r="K186" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L186" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M186" s="16"/>
+      <c r="N186" s="16"/>
+      <c r="O186" s="16"/>
+      <c r="P186" s="16"/>
+      <c r="Q186" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A187" s="9">
         <v>44463</v>
       </c>
@@ -23515,8 +24731,18 @@
       <c r="K187" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L187" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M187" s="16"/>
+      <c r="N187" s="16"/>
+      <c r="O187" s="16"/>
+      <c r="P187" s="16"/>
+      <c r="Q187" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A188" s="9">
         <v>44463</v>
       </c>
@@ -23550,8 +24776,18 @@
       <c r="K188" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L188" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M188" s="16"/>
+      <c r="N188" s="16"/>
+      <c r="O188" s="16"/>
+      <c r="P188" s="16"/>
+      <c r="Q188" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A189" s="9">
         <v>44463</v>
       </c>
@@ -23585,8 +24821,18 @@
       <c r="K189" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L189" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M189" s="16"/>
+      <c r="N189" s="16"/>
+      <c r="O189" s="16"/>
+      <c r="P189" s="16"/>
+      <c r="Q189" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A190" s="9">
         <v>44463</v>
       </c>
@@ -23620,8 +24866,18 @@
       <c r="K190" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L190" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M190" s="16"/>
+      <c r="N190" s="16"/>
+      <c r="O190" s="16"/>
+      <c r="P190" s="16"/>
+      <c r="Q190" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A191" s="9">
         <v>44463</v>
       </c>
@@ -23655,8 +24911,18 @@
       <c r="K191" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L191" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M191" s="16"/>
+      <c r="N191" s="16"/>
+      <c r="O191" s="16"/>
+      <c r="P191" s="16"/>
+      <c r="Q191" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A192" s="9">
         <v>44463</v>
       </c>
@@ -23690,8 +24956,18 @@
       <c r="K192" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L192" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M192" s="16"/>
+      <c r="N192" s="16"/>
+      <c r="O192" s="16"/>
+      <c r="P192" s="16"/>
+      <c r="Q192" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A193" s="9">
         <v>44463</v>
       </c>
@@ -23725,8 +25001,18 @@
       <c r="K193" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L193" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M193" s="16"/>
+      <c r="N193" s="16"/>
+      <c r="O193" s="16"/>
+      <c r="P193" s="16"/>
+      <c r="Q193" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A194" s="9">
         <v>44463</v>
       </c>
@@ -23760,8 +25046,18 @@
       <c r="K194" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L194" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M194" s="16"/>
+      <c r="N194" s="16"/>
+      <c r="O194" s="16"/>
+      <c r="P194" s="16"/>
+      <c r="Q194" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A195" s="9">
         <v>44463</v>
       </c>
@@ -23795,8 +25091,18 @@
       <c r="K195" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L195" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M195" s="16"/>
+      <c r="N195" s="16"/>
+      <c r="O195" s="16"/>
+      <c r="P195" s="16"/>
+      <c r="Q195" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A196" s="9">
         <v>44463</v>
       </c>
@@ -23830,8 +25136,18 @@
       <c r="K196" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L196" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M196" s="16"/>
+      <c r="N196" s="16"/>
+      <c r="O196" s="16"/>
+      <c r="P196" s="16"/>
+      <c r="Q196" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A197" s="9">
         <v>44463</v>
       </c>
@@ -23865,8 +25181,18 @@
       <c r="K197" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L197" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M197" s="16"/>
+      <c r="N197" s="16"/>
+      <c r="O197" s="16"/>
+      <c r="P197" s="16"/>
+      <c r="Q197" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A198" s="9">
         <v>44463</v>
       </c>
@@ -23900,8 +25226,18 @@
       <c r="K198" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L198" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M198" s="16"/>
+      <c r="N198" s="16"/>
+      <c r="O198" s="16"/>
+      <c r="P198" s="16"/>
+      <c r="Q198" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A199" s="9">
         <v>44463</v>
       </c>
@@ -23935,8 +25271,18 @@
       <c r="K199" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L199" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M199" s="16"/>
+      <c r="N199" s="16"/>
+      <c r="O199" s="16"/>
+      <c r="P199" s="16"/>
+      <c r="Q199" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A200" s="9">
         <v>44463</v>
       </c>
@@ -23970,8 +25316,18 @@
       <c r="K200" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L200" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M200" s="16"/>
+      <c r="N200" s="16"/>
+      <c r="O200" s="16"/>
+      <c r="P200" s="16"/>
+      <c r="Q200" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A201" s="9">
         <v>44463</v>
       </c>
@@ -24005,8 +25361,18 @@
       <c r="K201" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L201" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M201" s="16"/>
+      <c r="N201" s="16"/>
+      <c r="O201" s="16"/>
+      <c r="P201" s="16"/>
+      <c r="Q201" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A202" s="9">
         <v>44463</v>
       </c>
@@ -24040,8 +25406,18 @@
       <c r="K202" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L202" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M202" s="16"/>
+      <c r="N202" s="16"/>
+      <c r="O202" s="16"/>
+      <c r="P202" s="16"/>
+      <c r="Q202" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A203" s="9">
         <v>44463</v>
       </c>
@@ -24075,8 +25451,18 @@
       <c r="K203" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L203" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M203" s="16"/>
+      <c r="N203" s="16"/>
+      <c r="O203" s="16"/>
+      <c r="P203" s="16"/>
+      <c r="Q203" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A204" s="9">
         <v>44463</v>
       </c>
@@ -24110,8 +25496,18 @@
       <c r="K204" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L204" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M204" s="16"/>
+      <c r="N204" s="16"/>
+      <c r="O204" s="16"/>
+      <c r="P204" s="16"/>
+      <c r="Q204" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A205" s="9">
         <v>44463</v>
       </c>
@@ -24145,8 +25541,18 @@
       <c r="K205" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+      <c r="L205" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M205" s="16"/>
+      <c r="N205" s="16"/>
+      <c r="O205" s="16"/>
+      <c r="P205" s="16"/>
+      <c r="Q205" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" ht="42" x14ac:dyDescent="0.15">
       <c r="A206" s="9">
         <v>44463</v>
       </c>
@@ -24180,8 +25586,18 @@
       <c r="K206" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L206" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M206" s="16"/>
+      <c r="N206" s="16"/>
+      <c r="O206" s="16"/>
+      <c r="P206" s="16"/>
+      <c r="Q206" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A207" s="9">
         <v>44463</v>
       </c>
@@ -24215,8 +25631,18 @@
       <c r="K207" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L207" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M207" s="16"/>
+      <c r="N207" s="16"/>
+      <c r="O207" s="16"/>
+      <c r="P207" s="16"/>
+      <c r="Q207" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A208" s="9">
         <v>44463</v>
       </c>
@@ -24250,8 +25676,18 @@
       <c r="K208" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L208" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M208" s="16"/>
+      <c r="N208" s="16"/>
+      <c r="O208" s="16"/>
+      <c r="P208" s="16"/>
+      <c r="Q208" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A209" s="9">
         <v>44463</v>
       </c>
@@ -24285,8 +25721,18 @@
       <c r="K209" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L209" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M209" s="16"/>
+      <c r="N209" s="16"/>
+      <c r="O209" s="16"/>
+      <c r="P209" s="16"/>
+      <c r="Q209" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A210" s="9">
         <v>44463</v>
       </c>
@@ -24320,8 +25766,18 @@
       <c r="K210" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L210" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M210" s="16"/>
+      <c r="N210" s="16"/>
+      <c r="O210" s="16"/>
+      <c r="P210" s="16"/>
+      <c r="Q210" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A211" s="9">
         <v>44463</v>
       </c>
@@ -24355,8 +25811,18 @@
       <c r="K211" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L211" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M211" s="16"/>
+      <c r="N211" s="16"/>
+      <c r="O211" s="16"/>
+      <c r="P211" s="16"/>
+      <c r="Q211" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A212" s="9">
         <v>44463</v>
       </c>
@@ -24390,8 +25856,18 @@
       <c r="K212" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L212" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M212" s="16"/>
+      <c r="N212" s="16"/>
+      <c r="O212" s="16"/>
+      <c r="P212" s="16"/>
+      <c r="Q212" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A213" s="9">
         <v>44463</v>
       </c>
@@ -24425,8 +25901,18 @@
       <c r="K213" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L213" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M213" s="16"/>
+      <c r="N213" s="16"/>
+      <c r="O213" s="16"/>
+      <c r="P213" s="16"/>
+      <c r="Q213" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A214" s="9">
         <v>44463</v>
       </c>
@@ -24460,8 +25946,18 @@
       <c r="K214" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L214" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M214" s="16"/>
+      <c r="N214" s="16"/>
+      <c r="O214" s="16"/>
+      <c r="P214" s="16"/>
+      <c r="Q214" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A215" s="9">
         <v>44463</v>
       </c>
@@ -24495,8 +25991,18 @@
       <c r="K215" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L215" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M215" s="16"/>
+      <c r="N215" s="16"/>
+      <c r="O215" s="16"/>
+      <c r="P215" s="16"/>
+      <c r="Q215" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A216" s="9">
         <v>44463</v>
       </c>
@@ -24530,8 +26036,18 @@
       <c r="K216" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L216" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M216" s="16"/>
+      <c r="N216" s="16"/>
+      <c r="O216" s="16"/>
+      <c r="P216" s="16"/>
+      <c r="Q216" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A217" s="9">
         <v>44463</v>
       </c>
@@ -24565,8 +26081,18 @@
       <c r="K217" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L217" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M217" s="16"/>
+      <c r="N217" s="16"/>
+      <c r="O217" s="16"/>
+      <c r="P217" s="16"/>
+      <c r="Q217" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A218" s="9">
         <v>44463</v>
       </c>
@@ -24600,8 +26126,18 @@
       <c r="K218" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L218" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M218" s="16"/>
+      <c r="N218" s="16"/>
+      <c r="O218" s="16"/>
+      <c r="P218" s="16"/>
+      <c r="Q218" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A219" s="9">
         <v>44463</v>
       </c>
@@ -24635,8 +26171,18 @@
       <c r="K219" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L219" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M219" s="16"/>
+      <c r="N219" s="16"/>
+      <c r="O219" s="16"/>
+      <c r="P219" s="16"/>
+      <c r="Q219" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A220" s="9">
         <v>44463</v>
       </c>
@@ -24670,8 +26216,18 @@
       <c r="K220" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L220" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M220" s="16"/>
+      <c r="N220" s="16"/>
+      <c r="O220" s="16"/>
+      <c r="P220" s="16"/>
+      <c r="Q220" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A221" s="9">
         <v>44463</v>
       </c>
@@ -24705,8 +26261,18 @@
       <c r="K221" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L221" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M221" s="16"/>
+      <c r="N221" s="16"/>
+      <c r="O221" s="16"/>
+      <c r="P221" s="16"/>
+      <c r="Q221" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A222" s="9">
         <v>44463</v>
       </c>
@@ -24740,8 +26306,18 @@
       <c r="K222" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L222" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M222" s="16"/>
+      <c r="N222" s="16"/>
+      <c r="O222" s="16"/>
+      <c r="P222" s="16"/>
+      <c r="Q222" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A223" s="9">
         <v>44463</v>
       </c>
@@ -24775,8 +26351,18 @@
       <c r="K223" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L223" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M223" s="16"/>
+      <c r="N223" s="16"/>
+      <c r="O223" s="16"/>
+      <c r="P223" s="16"/>
+      <c r="Q223" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A224" s="9">
         <v>44463</v>
       </c>
@@ -24810,8 +26396,18 @@
       <c r="K224" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L224" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M224" s="16"/>
+      <c r="N224" s="16"/>
+      <c r="O224" s="16"/>
+      <c r="P224" s="16"/>
+      <c r="Q224" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A225" s="9">
         <v>44463</v>
       </c>
@@ -24845,8 +26441,18 @@
       <c r="K225" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L225" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M225" s="16"/>
+      <c r="N225" s="16"/>
+      <c r="O225" s="16"/>
+      <c r="P225" s="16"/>
+      <c r="Q225" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A226" s="9">
         <v>44463</v>
       </c>
@@ -24880,8 +26486,18 @@
       <c r="K226" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L226" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M226" s="16"/>
+      <c r="N226" s="16"/>
+      <c r="O226" s="16"/>
+      <c r="P226" s="16"/>
+      <c r="Q226" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A227" s="9">
         <v>44463</v>
       </c>
@@ -24915,8 +26531,18 @@
       <c r="K227" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L227" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M227" s="16"/>
+      <c r="N227" s="16"/>
+      <c r="O227" s="16"/>
+      <c r="P227" s="16"/>
+      <c r="Q227" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A228" s="9">
         <v>44463</v>
       </c>
@@ -24950,8 +26576,18 @@
       <c r="K228" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L228" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M228" s="16"/>
+      <c r="N228" s="16"/>
+      <c r="O228" s="16"/>
+      <c r="P228" s="16"/>
+      <c r="Q228" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A229" s="9">
         <v>44463</v>
       </c>
@@ -24985,8 +26621,18 @@
       <c r="K229" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L229" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M229" s="16"/>
+      <c r="N229" s="16"/>
+      <c r="O229" s="16"/>
+      <c r="P229" s="16"/>
+      <c r="Q229" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A230" s="9">
         <v>44463</v>
       </c>
@@ -25020,8 +26666,18 @@
       <c r="K230" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L230" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M230" s="16"/>
+      <c r="N230" s="16"/>
+      <c r="O230" s="16"/>
+      <c r="P230" s="16"/>
+      <c r="Q230" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A231" s="9">
         <v>44463</v>
       </c>
@@ -25055,8 +26711,18 @@
       <c r="K231" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L231" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M231" s="16"/>
+      <c r="N231" s="16"/>
+      <c r="O231" s="16"/>
+      <c r="P231" s="16"/>
+      <c r="Q231" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A232" s="9">
         <v>44463</v>
       </c>
@@ -25090,8 +26756,18 @@
       <c r="K232" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L232" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M232" s="16"/>
+      <c r="N232" s="16"/>
+      <c r="O232" s="16"/>
+      <c r="P232" s="16"/>
+      <c r="Q232" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A233" s="9">
         <v>44463</v>
       </c>
@@ -25125,8 +26801,18 @@
       <c r="K233" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L233" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M233" s="16"/>
+      <c r="N233" s="16"/>
+      <c r="O233" s="16"/>
+      <c r="P233" s="16"/>
+      <c r="Q233" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A234" s="9">
         <v>44463</v>
       </c>
@@ -25160,8 +26846,18 @@
       <c r="K234" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L234" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M234" s="16"/>
+      <c r="N234" s="16"/>
+      <c r="O234" s="16"/>
+      <c r="P234" s="16"/>
+      <c r="Q234" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A235" s="9">
         <v>44463</v>
       </c>
@@ -25195,8 +26891,18 @@
       <c r="K235" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L235" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M235" s="16"/>
+      <c r="N235" s="16"/>
+      <c r="O235" s="16"/>
+      <c r="P235" s="16"/>
+      <c r="Q235" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A236" s="9">
         <v>44463</v>
       </c>
@@ -25230,8 +26936,18 @@
       <c r="K236" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L236" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M236" s="16"/>
+      <c r="N236" s="16"/>
+      <c r="O236" s="16"/>
+      <c r="P236" s="16"/>
+      <c r="Q236" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A237" s="9">
         <v>44463</v>
       </c>
@@ -25265,8 +26981,18 @@
       <c r="K237" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L237" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M237" s="16"/>
+      <c r="N237" s="16"/>
+      <c r="O237" s="16"/>
+      <c r="P237" s="16"/>
+      <c r="Q237" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A238" s="9">
         <v>44463</v>
       </c>
@@ -25300,8 +27026,18 @@
       <c r="K238" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L238" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M238" s="16"/>
+      <c r="N238" s="16"/>
+      <c r="O238" s="16"/>
+      <c r="P238" s="16"/>
+      <c r="Q238" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A239" s="9">
         <v>44463</v>
       </c>
@@ -25335,8 +27071,18 @@
       <c r="K239" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+      <c r="L239" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M239" s="16"/>
+      <c r="N239" s="16"/>
+      <c r="O239" s="16"/>
+      <c r="P239" s="16"/>
+      <c r="Q239" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" ht="42" x14ac:dyDescent="0.15">
       <c r="A240" s="9">
         <v>44463</v>
       </c>
@@ -25370,8 +27116,18 @@
       <c r="K240" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L240" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M240" s="16"/>
+      <c r="N240" s="16"/>
+      <c r="O240" s="16"/>
+      <c r="P240" s="16"/>
+      <c r="Q240" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A241" s="9">
         <v>44463</v>
       </c>
@@ -25405,8 +27161,18 @@
       <c r="K241" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L241" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M241" s="16"/>
+      <c r="N241" s="16"/>
+      <c r="O241" s="16"/>
+      <c r="P241" s="16"/>
+      <c r="Q241" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A242" s="9">
         <v>44463</v>
       </c>
@@ -25440,8 +27206,18 @@
       <c r="K242" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="L242" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M242" s="16"/>
+      <c r="N242" s="16"/>
+      <c r="O242" s="16"/>
+      <c r="P242" s="16"/>
+      <c r="Q242" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A243" s="9">
         <v>44463</v>
       </c>
@@ -25475,8 +27251,18 @@
       <c r="K243" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L243" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="M243" s="16"/>
+      <c r="N243" s="16"/>
+      <c r="O243" s="16"/>
+      <c r="P243" s="16"/>
+      <c r="Q243" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A244" s="9">
         <v>44463</v>
       </c>
@@ -25510,8 +27296,14 @@
       <c r="K244" s="10" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L244" s="16"/>
+      <c r="M244" s="16"/>
+      <c r="N244" s="16"/>
+      <c r="O244" s="16"/>
+      <c r="P244" s="16"/>
+      <c r="Q244" s="16"/>
+    </row>
+    <row r="245" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A245" s="9">
         <v>44463</v>
       </c>
@@ -25545,8 +27337,14 @@
       <c r="K245" s="10" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L245" s="16"/>
+      <c r="M245" s="16"/>
+      <c r="N245" s="16"/>
+      <c r="O245" s="16"/>
+      <c r="P245" s="16"/>
+      <c r="Q245" s="16"/>
+    </row>
+    <row r="246" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A246" s="9">
         <v>44463</v>
       </c>
@@ -25580,8 +27378,14 @@
       <c r="K246" s="10" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L246" s="16"/>
+      <c r="M246" s="16"/>
+      <c r="N246" s="16"/>
+      <c r="O246" s="16"/>
+      <c r="P246" s="16"/>
+      <c r="Q246" s="16"/>
+    </row>
+    <row r="247" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A247" s="9">
         <v>44463</v>
       </c>
@@ -25615,8 +27419,14 @@
       <c r="K247" s="10" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" ht="168" x14ac:dyDescent="0.15">
+      <c r="L247" s="16"/>
+      <c r="M247" s="16"/>
+      <c r="N247" s="16"/>
+      <c r="O247" s="16"/>
+      <c r="P247" s="16"/>
+      <c r="Q247" s="16"/>
+    </row>
+    <row r="248" spans="1:17" ht="168" x14ac:dyDescent="0.15">
       <c r="A248" s="9">
         <v>44463</v>
       </c>
@@ -25650,8 +27460,14 @@
       <c r="K248" s="10" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" ht="168" x14ac:dyDescent="0.15">
+      <c r="L248" s="16"/>
+      <c r="M248" s="16"/>
+      <c r="N248" s="16"/>
+      <c r="O248" s="16"/>
+      <c r="P248" s="16"/>
+      <c r="Q248" s="16"/>
+    </row>
+    <row r="249" spans="1:17" ht="168" x14ac:dyDescent="0.15">
       <c r="A249" s="9">
         <v>44463</v>
       </c>
@@ -25685,8 +27501,14 @@
       <c r="K249" s="10" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" ht="168" x14ac:dyDescent="0.15">
+      <c r="L249" s="16"/>
+      <c r="M249" s="16"/>
+      <c r="N249" s="16"/>
+      <c r="O249" s="16"/>
+      <c r="P249" s="16"/>
+      <c r="Q249" s="16"/>
+    </row>
+    <row r="250" spans="1:17" ht="168" x14ac:dyDescent="0.15">
       <c r="A250" s="9">
         <v>44463</v>
       </c>
@@ -25720,8 +27542,14 @@
       <c r="K250" s="10" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" ht="168" x14ac:dyDescent="0.15">
+      <c r="L250" s="16"/>
+      <c r="M250" s="16"/>
+      <c r="N250" s="16"/>
+      <c r="O250" s="16"/>
+      <c r="P250" s="16"/>
+      <c r="Q250" s="16"/>
+    </row>
+    <row r="251" spans="1:17" ht="168" x14ac:dyDescent="0.15">
       <c r="A251" s="9">
         <v>44463</v>
       </c>
@@ -25755,8 +27583,14 @@
       <c r="K251" s="10" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L251" s="16"/>
+      <c r="M251" s="16"/>
+      <c r="N251" s="16"/>
+      <c r="O251" s="16"/>
+      <c r="P251" s="16"/>
+      <c r="Q251" s="16"/>
+    </row>
+    <row r="252" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A252" s="9">
         <v>44463</v>
       </c>
@@ -25788,8 +27622,14 @@
         <v>47</v>
       </c>
       <c r="K252" s="12"/>
-    </row>
-    <row r="253" spans="1:11" ht="84" x14ac:dyDescent="0.15">
+      <c r="L252" s="16"/>
+      <c r="M252" s="16"/>
+      <c r="N252" s="16"/>
+      <c r="O252" s="16"/>
+      <c r="P252" s="16"/>
+      <c r="Q252" s="16"/>
+    </row>
+    <row r="253" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A253" s="9">
         <v>44463</v>
       </c>
@@ -25821,8 +27661,14 @@
         <v>70</v>
       </c>
       <c r="K253" s="12"/>
-    </row>
-    <row r="254" spans="1:11" ht="84" x14ac:dyDescent="0.15">
+      <c r="L253" s="16"/>
+      <c r="M253" s="16"/>
+      <c r="N253" s="16"/>
+      <c r="O253" s="16"/>
+      <c r="P253" s="16"/>
+      <c r="Q253" s="16"/>
+    </row>
+    <row r="254" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A254" s="9">
         <v>44463</v>
       </c>
@@ -25854,8 +27700,14 @@
         <v>73</v>
       </c>
       <c r="K254" s="12"/>
-    </row>
-    <row r="255" spans="1:11" ht="84" x14ac:dyDescent="0.15">
+      <c r="L254" s="16"/>
+      <c r="M254" s="16"/>
+      <c r="N254" s="16"/>
+      <c r="O254" s="16"/>
+      <c r="P254" s="16"/>
+      <c r="Q254" s="16"/>
+    </row>
+    <row r="255" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A255" s="9">
         <v>44463</v>
       </c>
@@ -25887,8 +27739,14 @@
         <v>76</v>
       </c>
       <c r="K255" s="12"/>
-    </row>
-    <row r="256" spans="1:11" ht="84" x14ac:dyDescent="0.15">
+      <c r="L255" s="16"/>
+      <c r="M255" s="16"/>
+      <c r="N255" s="16"/>
+      <c r="O255" s="16"/>
+      <c r="P255" s="16"/>
+      <c r="Q255" s="16"/>
+    </row>
+    <row r="256" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A256" s="9">
         <v>44463</v>
       </c>
@@ -25920,8 +27778,14 @@
         <v>79</v>
       </c>
       <c r="K256" s="11"/>
-    </row>
-    <row r="257" spans="1:11" ht="98" x14ac:dyDescent="0.15">
+      <c r="L256" s="16"/>
+      <c r="M256" s="16"/>
+      <c r="N256" s="16"/>
+      <c r="O256" s="16"/>
+      <c r="P256" s="16"/>
+      <c r="Q256" s="16"/>
+    </row>
+    <row r="257" spans="1:17" ht="98" hidden="1" x14ac:dyDescent="0.15">
       <c r="A257" s="9">
         <v>44463</v>
       </c>
@@ -25953,8 +27817,14 @@
         <v>82</v>
       </c>
       <c r="K257" s="11"/>
-    </row>
-    <row r="258" spans="1:11" ht="84" x14ac:dyDescent="0.15">
+      <c r="L257" s="16"/>
+      <c r="M257" s="16"/>
+      <c r="N257" s="16"/>
+      <c r="O257" s="16"/>
+      <c r="P257" s="16"/>
+      <c r="Q257" s="16"/>
+    </row>
+    <row r="258" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A258" s="9">
         <v>44463</v>
       </c>
@@ -25986,8 +27856,14 @@
         <v>85</v>
       </c>
       <c r="K258" s="11"/>
-    </row>
-    <row r="259" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+      <c r="L258" s="16"/>
+      <c r="M258" s="16"/>
+      <c r="N258" s="16"/>
+      <c r="O258" s="16"/>
+      <c r="P258" s="16"/>
+      <c r="Q258" s="16"/>
+    </row>
+    <row r="259" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A259" s="9">
         <v>44463</v>
       </c>
@@ -26019,8 +27895,14 @@
         <v>52</v>
       </c>
       <c r="K259" s="11"/>
-    </row>
-    <row r="260" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+      <c r="L259" s="16"/>
+      <c r="M259" s="16"/>
+      <c r="N259" s="16"/>
+      <c r="O259" s="16"/>
+      <c r="P259" s="16"/>
+      <c r="Q259" s="16"/>
+    </row>
+    <row r="260" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A260" s="9">
         <v>44463</v>
       </c>
@@ -26052,8 +27934,14 @@
         <v>55</v>
       </c>
       <c r="K260" s="12"/>
-    </row>
-    <row r="261" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="L260" s="16"/>
+      <c r="M260" s="16"/>
+      <c r="N260" s="16"/>
+      <c r="O260" s="16"/>
+      <c r="P260" s="16"/>
+      <c r="Q260" s="16"/>
+    </row>
+    <row r="261" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A261" s="9">
         <v>44463</v>
       </c>
@@ -26085,8 +27973,14 @@
         <v>58</v>
       </c>
       <c r="K261" s="12"/>
-    </row>
-    <row r="262" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="L261" s="16"/>
+      <c r="M261" s="16"/>
+      <c r="N261" s="16"/>
+      <c r="O261" s="16"/>
+      <c r="P261" s="16"/>
+      <c r="Q261" s="16"/>
+    </row>
+    <row r="262" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A262" s="9">
         <v>44463</v>
       </c>
@@ -26118,8 +28012,14 @@
         <v>61</v>
       </c>
       <c r="K262" s="12"/>
-    </row>
-    <row r="263" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="L262" s="16"/>
+      <c r="M262" s="16"/>
+      <c r="N262" s="16"/>
+      <c r="O262" s="16"/>
+      <c r="P262" s="16"/>
+      <c r="Q262" s="16"/>
+    </row>
+    <row r="263" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A263" s="9">
         <v>44463</v>
       </c>
@@ -26151,8 +28051,14 @@
         <v>64</v>
       </c>
       <c r="K263" s="12"/>
-    </row>
-    <row r="264" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="L263" s="16"/>
+      <c r="M263" s="16"/>
+      <c r="N263" s="16"/>
+      <c r="O263" s="16"/>
+      <c r="P263" s="16"/>
+      <c r="Q263" s="16"/>
+    </row>
+    <row r="264" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A264" s="9">
         <v>44463</v>
       </c>
@@ -26184,8 +28090,14 @@
         <v>67</v>
       </c>
       <c r="K264" s="11"/>
-    </row>
-    <row r="265" spans="1:11" ht="84" x14ac:dyDescent="0.15">
+      <c r="L264" s="16"/>
+      <c r="M264" s="16"/>
+      <c r="N264" s="16"/>
+      <c r="O264" s="16"/>
+      <c r="P264" s="16"/>
+      <c r="Q264" s="16"/>
+    </row>
+    <row r="265" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A265" s="9">
         <v>44463</v>
       </c>
@@ -26217,8 +28129,14 @@
         <v>70</v>
       </c>
       <c r="K265" s="12"/>
-    </row>
-    <row r="266" spans="1:11" ht="84" x14ac:dyDescent="0.15">
+      <c r="L265" s="16"/>
+      <c r="M265" s="16"/>
+      <c r="N265" s="16"/>
+      <c r="O265" s="16"/>
+      <c r="P265" s="16"/>
+      <c r="Q265" s="16"/>
+    </row>
+    <row r="266" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A266" s="9">
         <v>44463</v>
       </c>
@@ -26250,8 +28168,14 @@
         <v>73</v>
       </c>
       <c r="K266" s="12"/>
-    </row>
-    <row r="267" spans="1:11" ht="84" x14ac:dyDescent="0.15">
+      <c r="L266" s="16"/>
+      <c r="M266" s="16"/>
+      <c r="N266" s="16"/>
+      <c r="O266" s="16"/>
+      <c r="P266" s="16"/>
+      <c r="Q266" s="16"/>
+    </row>
+    <row r="267" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A267" s="9">
         <v>44463</v>
       </c>
@@ -26283,8 +28207,14 @@
         <v>76</v>
       </c>
       <c r="K267" s="12"/>
-    </row>
-    <row r="268" spans="1:11" ht="84" x14ac:dyDescent="0.15">
+      <c r="L267" s="16"/>
+      <c r="M267" s="16"/>
+      <c r="N267" s="16"/>
+      <c r="O267" s="16"/>
+      <c r="P267" s="16"/>
+      <c r="Q267" s="16"/>
+    </row>
+    <row r="268" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A268" s="9">
         <v>44463</v>
       </c>
@@ -26316,8 +28246,14 @@
         <v>79</v>
       </c>
       <c r="K268" s="12"/>
-    </row>
-    <row r="269" spans="1:11" ht="98" x14ac:dyDescent="0.15">
+      <c r="L268" s="16"/>
+      <c r="M268" s="16"/>
+      <c r="N268" s="16"/>
+      <c r="O268" s="16"/>
+      <c r="P268" s="16"/>
+      <c r="Q268" s="16"/>
+    </row>
+    <row r="269" spans="1:17" ht="98" hidden="1" x14ac:dyDescent="0.15">
       <c r="A269" s="9">
         <v>44463</v>
       </c>
@@ -26349,8 +28285,14 @@
         <v>82</v>
       </c>
       <c r="K269" s="11"/>
-    </row>
-    <row r="270" spans="1:11" ht="84" x14ac:dyDescent="0.15">
+      <c r="L269" s="16"/>
+      <c r="M269" s="16"/>
+      <c r="N269" s="16"/>
+      <c r="O269" s="16"/>
+      <c r="P269" s="16"/>
+      <c r="Q269" s="16"/>
+    </row>
+    <row r="270" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A270" s="9">
         <v>44463</v>
       </c>
@@ -26382,8 +28324,14 @@
         <v>85</v>
       </c>
       <c r="K270" s="11"/>
-    </row>
-    <row r="271" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+      <c r="L270" s="16"/>
+      <c r="M270" s="16"/>
+      <c r="N270" s="16"/>
+      <c r="O270" s="16"/>
+      <c r="P270" s="16"/>
+      <c r="Q270" s="16"/>
+    </row>
+    <row r="271" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A271" s="9">
         <v>44463</v>
       </c>
@@ -26415,8 +28363,14 @@
         <v>52</v>
       </c>
       <c r="K271" s="11"/>
-    </row>
-    <row r="272" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+      <c r="L271" s="16"/>
+      <c r="M271" s="16"/>
+      <c r="N271" s="16"/>
+      <c r="O271" s="16"/>
+      <c r="P271" s="16"/>
+      <c r="Q271" s="16"/>
+    </row>
+    <row r="272" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A272" s="9">
         <v>44463</v>
       </c>
@@ -26448,8 +28402,14 @@
         <v>55</v>
       </c>
       <c r="K272" s="11"/>
-    </row>
-    <row r="273" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="L272" s="16"/>
+      <c r="M272" s="16"/>
+      <c r="N272" s="16"/>
+      <c r="O272" s="16"/>
+      <c r="P272" s="16"/>
+      <c r="Q272" s="16"/>
+    </row>
+    <row r="273" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A273" s="9">
         <v>44463</v>
       </c>
@@ -26481,8 +28441,14 @@
         <v>58</v>
       </c>
       <c r="K273" s="13"/>
-    </row>
-    <row r="274" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="L273" s="16"/>
+      <c r="M273" s="16"/>
+      <c r="N273" s="16"/>
+      <c r="O273" s="16"/>
+      <c r="P273" s="16"/>
+      <c r="Q273" s="16"/>
+    </row>
+    <row r="274" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A274" s="9">
         <v>44463</v>
       </c>
@@ -26514,8 +28480,14 @@
         <v>61</v>
       </c>
       <c r="K274" s="11"/>
-    </row>
-    <row r="275" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="L274" s="16"/>
+      <c r="M274" s="16"/>
+      <c r="N274" s="16"/>
+      <c r="O274" s="16"/>
+      <c r="P274" s="16"/>
+      <c r="Q274" s="16"/>
+    </row>
+    <row r="275" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A275" s="9">
         <v>44463</v>
       </c>
@@ -26547,8 +28519,14 @@
         <v>64</v>
       </c>
       <c r="K275" s="12"/>
-    </row>
-    <row r="276" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="L275" s="16"/>
+      <c r="M275" s="16"/>
+      <c r="N275" s="16"/>
+      <c r="O275" s="16"/>
+      <c r="P275" s="16"/>
+      <c r="Q275" s="16"/>
+    </row>
+    <row r="276" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A276" s="9">
         <v>44463</v>
       </c>
@@ -26580,8 +28558,14 @@
         <v>67</v>
       </c>
       <c r="K276" s="12"/>
-    </row>
-    <row r="277" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L276" s="16"/>
+      <c r="M276" s="16"/>
+      <c r="N276" s="16"/>
+      <c r="O276" s="16"/>
+      <c r="P276" s="16"/>
+      <c r="Q276" s="16"/>
+    </row>
+    <row r="277" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A277" s="9">
         <v>44463</v>
       </c>
@@ -26613,8 +28597,14 @@
         <v>91</v>
       </c>
       <c r="K277" s="11"/>
-    </row>
-    <row r="278" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L277" s="16"/>
+      <c r="M277" s="16"/>
+      <c r="N277" s="16"/>
+      <c r="O277" s="16"/>
+      <c r="P277" s="16"/>
+      <c r="Q277" s="16"/>
+    </row>
+    <row r="278" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A278" s="9">
         <v>44463</v>
       </c>
@@ -26646,8 +28636,14 @@
         <v>107</v>
       </c>
       <c r="K278" s="12"/>
-    </row>
-    <row r="279" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L278" s="16"/>
+      <c r="M278" s="16"/>
+      <c r="N278" s="16"/>
+      <c r="O278" s="16"/>
+      <c r="P278" s="16"/>
+      <c r="Q278" s="16"/>
+    </row>
+    <row r="279" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A279" s="9">
         <v>44463</v>
       </c>
@@ -26679,8 +28675,14 @@
         <v>169</v>
       </c>
       <c r="K279" s="11"/>
-    </row>
-    <row r="280" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L279" s="16"/>
+      <c r="M279" s="16"/>
+      <c r="N279" s="16"/>
+      <c r="O279" s="16"/>
+      <c r="P279" s="16"/>
+      <c r="Q279" s="16"/>
+    </row>
+    <row r="280" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A280" s="9">
         <v>44463</v>
       </c>
@@ -26712,8 +28714,14 @@
         <v>170</v>
       </c>
       <c r="K280" s="11"/>
-    </row>
-    <row r="281" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L280" s="16"/>
+      <c r="M280" s="16"/>
+      <c r="N280" s="16"/>
+      <c r="O280" s="16"/>
+      <c r="P280" s="16"/>
+      <c r="Q280" s="16"/>
+    </row>
+    <row r="281" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A281" s="9">
         <v>44463</v>
       </c>
@@ -26745,8 +28753,14 @@
         <v>172</v>
       </c>
       <c r="K281" s="11"/>
-    </row>
-    <row r="282" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L281" s="16"/>
+      <c r="M281" s="16"/>
+      <c r="N281" s="16"/>
+      <c r="O281" s="16"/>
+      <c r="P281" s="16"/>
+      <c r="Q281" s="16"/>
+    </row>
+    <row r="282" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A282" s="9">
         <v>44463</v>
       </c>
@@ -26778,8 +28792,14 @@
         <v>178</v>
       </c>
       <c r="K282" s="11"/>
-    </row>
-    <row r="283" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L282" s="16"/>
+      <c r="M282" s="16"/>
+      <c r="N282" s="16"/>
+      <c r="O282" s="16"/>
+      <c r="P282" s="16"/>
+      <c r="Q282" s="16"/>
+    </row>
+    <row r="283" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A283" s="9">
         <v>44463</v>
       </c>
@@ -26811,8 +28831,14 @@
         <v>182</v>
       </c>
       <c r="K283" s="11"/>
-    </row>
-    <row r="284" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L283" s="16"/>
+      <c r="M283" s="16"/>
+      <c r="N283" s="16"/>
+      <c r="O283" s="16"/>
+      <c r="P283" s="16"/>
+      <c r="Q283" s="16"/>
+    </row>
+    <row r="284" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A284" s="9">
         <v>44463</v>
       </c>
@@ -26844,8 +28870,14 @@
         <v>183</v>
       </c>
       <c r="K284" s="11"/>
-    </row>
-    <row r="285" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L284" s="16"/>
+      <c r="M284" s="16"/>
+      <c r="N284" s="16"/>
+      <c r="O284" s="16"/>
+      <c r="P284" s="16"/>
+      <c r="Q284" s="16"/>
+    </row>
+    <row r="285" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A285" s="9">
         <v>44463</v>
       </c>
@@ -26877,8 +28909,14 @@
         <v>184</v>
       </c>
       <c r="K285" s="11"/>
-    </row>
-    <row r="286" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L285" s="16"/>
+      <c r="M285" s="16"/>
+      <c r="N285" s="16"/>
+      <c r="O285" s="16"/>
+      <c r="P285" s="16"/>
+      <c r="Q285" s="16"/>
+    </row>
+    <row r="286" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A286" s="9">
         <v>44463</v>
       </c>
@@ -26910,8 +28948,14 @@
         <v>97</v>
       </c>
       <c r="K286" s="12"/>
-    </row>
-    <row r="287" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L286" s="16"/>
+      <c r="M286" s="16"/>
+      <c r="N286" s="16"/>
+      <c r="O286" s="16"/>
+      <c r="P286" s="16"/>
+      <c r="Q286" s="16"/>
+    </row>
+    <row r="287" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A287" s="9">
         <v>44463</v>
       </c>
@@ -26943,8 +28987,14 @@
         <v>99</v>
       </c>
       <c r="K287" s="12"/>
-    </row>
-    <row r="288" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L287" s="16"/>
+      <c r="M287" s="16"/>
+      <c r="N287" s="16"/>
+      <c r="O287" s="16"/>
+      <c r="P287" s="16"/>
+      <c r="Q287" s="16"/>
+    </row>
+    <row r="288" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A288" s="9">
         <v>44463</v>
       </c>
@@ -26976,8 +29026,14 @@
         <v>105</v>
       </c>
       <c r="K288" s="12"/>
-    </row>
-    <row r="289" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L288" s="16"/>
+      <c r="M288" s="16"/>
+      <c r="N288" s="16"/>
+      <c r="O288" s="16"/>
+      <c r="P288" s="16"/>
+      <c r="Q288" s="16"/>
+    </row>
+    <row r="289" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A289" s="9">
         <v>44463</v>
       </c>
@@ -27009,8 +29065,14 @@
         <v>107</v>
       </c>
       <c r="K289" s="12"/>
-    </row>
-    <row r="290" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L289" s="16"/>
+      <c r="M289" s="16"/>
+      <c r="N289" s="16"/>
+      <c r="O289" s="16"/>
+      <c r="P289" s="16"/>
+      <c r="Q289" s="16"/>
+    </row>
+    <row r="290" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A290" s="9">
         <v>44463</v>
       </c>
@@ -27042,8 +29104,14 @@
         <v>169</v>
       </c>
       <c r="K290" s="11"/>
-    </row>
-    <row r="291" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L290" s="16"/>
+      <c r="M290" s="16"/>
+      <c r="N290" s="16"/>
+      <c r="O290" s="16"/>
+      <c r="P290" s="16"/>
+      <c r="Q290" s="16"/>
+    </row>
+    <row r="291" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A291" s="9">
         <v>44463</v>
       </c>
@@ -27075,8 +29143,14 @@
         <v>170</v>
       </c>
       <c r="K291" s="11"/>
-    </row>
-    <row r="292" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L291" s="16"/>
+      <c r="M291" s="16"/>
+      <c r="N291" s="16"/>
+      <c r="O291" s="16"/>
+      <c r="P291" s="16"/>
+      <c r="Q291" s="16"/>
+    </row>
+    <row r="292" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A292" s="9">
         <v>44463</v>
       </c>
@@ -27108,8 +29182,14 @@
         <v>172</v>
       </c>
       <c r="K292" s="11"/>
-    </row>
-    <row r="293" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L292" s="16"/>
+      <c r="M292" s="16"/>
+      <c r="N292" s="16"/>
+      <c r="O292" s="16"/>
+      <c r="P292" s="16"/>
+      <c r="Q292" s="16"/>
+    </row>
+    <row r="293" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A293" s="9">
         <v>44463</v>
       </c>
@@ -27141,8 +29221,14 @@
         <v>178</v>
       </c>
       <c r="K293" s="11"/>
-    </row>
-    <row r="294" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L293" s="16"/>
+      <c r="M293" s="16"/>
+      <c r="N293" s="16"/>
+      <c r="O293" s="16"/>
+      <c r="P293" s="16"/>
+      <c r="Q293" s="16"/>
+    </row>
+    <row r="294" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A294" s="9">
         <v>44463</v>
       </c>
@@ -27174,8 +29260,14 @@
         <v>182</v>
       </c>
       <c r="K294" s="11"/>
-    </row>
-    <row r="295" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L294" s="16"/>
+      <c r="M294" s="16"/>
+      <c r="N294" s="16"/>
+      <c r="O294" s="16"/>
+      <c r="P294" s="16"/>
+      <c r="Q294" s="16"/>
+    </row>
+    <row r="295" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A295" s="9">
         <v>44463</v>
       </c>
@@ -27207,8 +29299,14 @@
         <v>183</v>
       </c>
       <c r="K295" s="11"/>
-    </row>
-    <row r="296" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L295" s="16"/>
+      <c r="M295" s="16"/>
+      <c r="N295" s="16"/>
+      <c r="O295" s="16"/>
+      <c r="P295" s="16"/>
+      <c r="Q295" s="16"/>
+    </row>
+    <row r="296" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A296" s="9">
         <v>44463</v>
       </c>
@@ -27240,8 +29338,14 @@
         <v>184</v>
       </c>
       <c r="K296" s="11"/>
-    </row>
-    <row r="297" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L296" s="16"/>
+      <c r="M296" s="16"/>
+      <c r="N296" s="16"/>
+      <c r="O296" s="16"/>
+      <c r="P296" s="16"/>
+      <c r="Q296" s="16"/>
+    </row>
+    <row r="297" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A297" s="9">
         <v>44463</v>
       </c>
@@ -27273,8 +29377,14 @@
         <v>97</v>
       </c>
       <c r="K297" s="11"/>
-    </row>
-    <row r="298" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L297" s="16"/>
+      <c r="M297" s="16"/>
+      <c r="N297" s="16"/>
+      <c r="O297" s="16"/>
+      <c r="P297" s="16"/>
+      <c r="Q297" s="16"/>
+    </row>
+    <row r="298" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A298" s="9">
         <v>44463</v>
       </c>
@@ -27306,8 +29416,14 @@
         <v>99</v>
       </c>
       <c r="K298" s="11"/>
-    </row>
-    <row r="299" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L298" s="16"/>
+      <c r="M298" s="16"/>
+      <c r="N298" s="16"/>
+      <c r="O298" s="16"/>
+      <c r="P298" s="16"/>
+      <c r="Q298" s="16"/>
+    </row>
+    <row r="299" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A299" s="9">
         <v>44463</v>
       </c>
@@ -27339,8 +29455,14 @@
         <v>105</v>
       </c>
       <c r="K299" s="12"/>
-    </row>
-    <row r="300" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+      <c r="L299" s="16"/>
+      <c r="M299" s="16"/>
+      <c r="N299" s="16"/>
+      <c r="O299" s="16"/>
+      <c r="P299" s="16"/>
+      <c r="Q299" s="16"/>
+    </row>
+    <row r="300" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A300" s="9">
         <v>44463</v>
       </c>
@@ -27372,8 +29494,14 @@
         <v>362</v>
       </c>
       <c r="K300" s="11"/>
-    </row>
-    <row r="301" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+      <c r="L300" s="16"/>
+      <c r="M300" s="16"/>
+      <c r="N300" s="16"/>
+      <c r="O300" s="16"/>
+      <c r="P300" s="16"/>
+      <c r="Q300" s="16"/>
+    </row>
+    <row r="301" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A301" s="9">
         <v>44463</v>
       </c>
@@ -27405,8 +29533,14 @@
         <v>365</v>
       </c>
       <c r="K301" s="11"/>
-    </row>
-    <row r="302" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+      <c r="L301" s="16"/>
+      <c r="M301" s="16"/>
+      <c r="N301" s="16"/>
+      <c r="O301" s="16"/>
+      <c r="P301" s="16"/>
+      <c r="Q301" s="16"/>
+    </row>
+    <row r="302" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A302" s="9">
         <v>44463</v>
       </c>
@@ -27438,8 +29572,14 @@
         <v>368</v>
       </c>
       <c r="K302" s="11"/>
-    </row>
-    <row r="303" spans="1:11" ht="84" x14ac:dyDescent="0.15">
+      <c r="L302" s="16"/>
+      <c r="M302" s="16"/>
+      <c r="N302" s="16"/>
+      <c r="O302" s="16"/>
+      <c r="P302" s="16"/>
+      <c r="Q302" s="16"/>
+    </row>
+    <row r="303" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A303" s="9">
         <v>44463</v>
       </c>
@@ -27471,8 +29611,14 @@
         <v>372</v>
       </c>
       <c r="K303" s="11"/>
-    </row>
-    <row r="304" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="L303" s="16"/>
+      <c r="M303" s="16"/>
+      <c r="N303" s="16"/>
+      <c r="O303" s="16"/>
+      <c r="P303" s="16"/>
+      <c r="Q303" s="16"/>
+    </row>
+    <row r="304" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A304" s="9">
         <v>44463</v>
       </c>
@@ -27504,8 +29650,14 @@
         <v>417</v>
       </c>
       <c r="K304" s="11"/>
-    </row>
-    <row r="305" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+      <c r="L304" s="16"/>
+      <c r="M304" s="16"/>
+      <c r="N304" s="16"/>
+      <c r="O304" s="16"/>
+      <c r="P304" s="16"/>
+      <c r="Q304" s="16"/>
+    </row>
+    <row r="305" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A305" s="9">
         <v>44463</v>
       </c>
@@ -27537,8 +29689,14 @@
         <v>434</v>
       </c>
       <c r="K305" s="11"/>
-    </row>
-    <row r="306" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+      <c r="L305" s="16"/>
+      <c r="M305" s="16"/>
+      <c r="N305" s="16"/>
+      <c r="O305" s="16"/>
+      <c r="P305" s="16"/>
+      <c r="Q305" s="16"/>
+    </row>
+    <row r="306" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A306" s="9">
         <v>44463</v>
       </c>
@@ -27570,8 +29728,14 @@
         <v>449</v>
       </c>
       <c r="K306" s="11"/>
-    </row>
-    <row r="307" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="L306" s="16"/>
+      <c r="M306" s="16"/>
+      <c r="N306" s="16"/>
+      <c r="O306" s="16"/>
+      <c r="P306" s="16"/>
+      <c r="Q306" s="16"/>
+    </row>
+    <row r="307" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A307" s="9">
         <v>44463</v>
       </c>
@@ -27603,8 +29767,14 @@
         <v>451</v>
       </c>
       <c r="K307" s="11"/>
-    </row>
-    <row r="308" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L307" s="16"/>
+      <c r="M307" s="16"/>
+      <c r="N307" s="16"/>
+      <c r="O307" s="16"/>
+      <c r="P307" s="16"/>
+      <c r="Q307" s="16"/>
+    </row>
+    <row r="308" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A308" s="9">
         <v>44463</v>
       </c>
@@ -27636,8 +29806,14 @@
         <v>453</v>
       </c>
       <c r="K308" s="11"/>
-    </row>
-    <row r="309" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L308" s="16"/>
+      <c r="M308" s="16"/>
+      <c r="N308" s="16"/>
+      <c r="O308" s="16"/>
+      <c r="P308" s="16"/>
+      <c r="Q308" s="16"/>
+    </row>
+    <row r="309" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A309" s="9">
         <v>44463</v>
       </c>
@@ -27669,8 +29845,14 @@
         <v>449</v>
       </c>
       <c r="K309" s="11"/>
-    </row>
-    <row r="310" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L309" s="16"/>
+      <c r="M309" s="16"/>
+      <c r="N309" s="16"/>
+      <c r="O309" s="16"/>
+      <c r="P309" s="16"/>
+      <c r="Q309" s="16"/>
+    </row>
+    <row r="310" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A310" s="9">
         <v>44463</v>
       </c>
@@ -27702,8 +29884,14 @@
         <v>17</v>
       </c>
       <c r="K310" s="11"/>
-    </row>
-    <row r="311" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+      <c r="L310" s="16"/>
+      <c r="M310" s="16"/>
+      <c r="N310" s="16"/>
+      <c r="O310" s="16"/>
+      <c r="P310" s="16"/>
+      <c r="Q310" s="16"/>
+    </row>
+    <row r="311" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A311" s="9">
         <v>44463</v>
       </c>
@@ -27735,8 +29923,14 @@
         <v>456</v>
       </c>
       <c r="K311" s="11"/>
-    </row>
-    <row r="312" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="L311" s="16"/>
+      <c r="M311" s="16"/>
+      <c r="N311" s="16"/>
+      <c r="O311" s="16"/>
+      <c r="P311" s="16"/>
+      <c r="Q311" s="16"/>
+    </row>
+    <row r="312" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A312" s="9">
         <v>44463</v>
       </c>
@@ -27768,8 +29962,14 @@
         <v>458</v>
       </c>
       <c r="K312" s="11"/>
-    </row>
-    <row r="313" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L312" s="16"/>
+      <c r="M312" s="16"/>
+      <c r="N312" s="16"/>
+      <c r="O312" s="16"/>
+      <c r="P312" s="16"/>
+      <c r="Q312" s="16"/>
+    </row>
+    <row r="313" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A313" s="9">
         <v>44463</v>
       </c>
@@ -27801,8 +30001,14 @@
         <v>460</v>
       </c>
       <c r="K313" s="11"/>
-    </row>
-    <row r="314" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L313" s="16"/>
+      <c r="M313" s="16"/>
+      <c r="N313" s="16"/>
+      <c r="O313" s="16"/>
+      <c r="P313" s="16"/>
+      <c r="Q313" s="16"/>
+    </row>
+    <row r="314" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A314" s="9">
         <v>44463</v>
       </c>
@@ -27834,8 +30040,14 @@
         <v>456</v>
       </c>
       <c r="K314" s="11"/>
-    </row>
-    <row r="315" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L314" s="16"/>
+      <c r="M314" s="16"/>
+      <c r="N314" s="16"/>
+      <c r="O314" s="16"/>
+      <c r="P314" s="16"/>
+      <c r="Q314" s="16"/>
+    </row>
+    <row r="315" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A315" s="9">
         <v>44463</v>
       </c>
@@ -27867,8 +30079,14 @@
         <v>17</v>
       </c>
       <c r="K315" s="11"/>
-    </row>
-    <row r="316" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+      <c r="L315" s="16"/>
+      <c r="M315" s="16"/>
+      <c r="N315" s="16"/>
+      <c r="O315" s="16"/>
+      <c r="P315" s="16"/>
+      <c r="Q315" s="16"/>
+    </row>
+    <row r="316" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A316" s="9">
         <v>44463</v>
       </c>
@@ -27900,8 +30118,14 @@
         <v>463</v>
       </c>
       <c r="K316" s="11"/>
-    </row>
-    <row r="317" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+      <c r="L316" s="16"/>
+      <c r="M316" s="16"/>
+      <c r="N316" s="16"/>
+      <c r="O316" s="16"/>
+      <c r="P316" s="16"/>
+      <c r="Q316" s="16"/>
+    </row>
+    <row r="317" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A317" s="9">
         <v>44463</v>
       </c>
@@ -27933,8 +30157,14 @@
         <v>465</v>
       </c>
       <c r="K317" s="11"/>
-    </row>
-    <row r="318" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L317" s="16"/>
+      <c r="M317" s="16"/>
+      <c r="N317" s="16"/>
+      <c r="O317" s="16"/>
+      <c r="P317" s="16"/>
+      <c r="Q317" s="16"/>
+    </row>
+    <row r="318" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A318" s="9">
         <v>44463</v>
       </c>
@@ -27966,8 +30196,14 @@
         <v>467</v>
       </c>
       <c r="K318" s="11"/>
-    </row>
-    <row r="319" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L318" s="16"/>
+      <c r="M318" s="16"/>
+      <c r="N318" s="16"/>
+      <c r="O318" s="16"/>
+      <c r="P318" s="16"/>
+      <c r="Q318" s="16"/>
+    </row>
+    <row r="319" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A319" s="9">
         <v>44463</v>
       </c>
@@ -27999,8 +30235,14 @@
         <v>463</v>
       </c>
       <c r="K319" s="11"/>
-    </row>
-    <row r="320" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L319" s="16"/>
+      <c r="M319" s="16"/>
+      <c r="N319" s="16"/>
+      <c r="O319" s="16"/>
+      <c r="P319" s="16"/>
+      <c r="Q319" s="16"/>
+    </row>
+    <row r="320" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A320" s="9">
         <v>44463</v>
       </c>
@@ -28032,8 +30274,14 @@
         <v>17</v>
       </c>
       <c r="K320" s="11"/>
-    </row>
-    <row r="321" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+      <c r="L320" s="16"/>
+      <c r="M320" s="16"/>
+      <c r="N320" s="16"/>
+      <c r="O320" s="16"/>
+      <c r="P320" s="16"/>
+      <c r="Q320" s="16"/>
+    </row>
+    <row r="321" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A321" s="9">
         <v>44463</v>
       </c>
@@ -28065,8 +30313,14 @@
         <v>486</v>
       </c>
       <c r="K321" s="11"/>
-    </row>
-    <row r="322" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="L321" s="16"/>
+      <c r="M321" s="16"/>
+      <c r="N321" s="16"/>
+      <c r="O321" s="16"/>
+      <c r="P321" s="16"/>
+      <c r="Q321" s="16"/>
+    </row>
+    <row r="322" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A322" s="9">
         <v>44463</v>
       </c>
@@ -28098,8 +30352,14 @@
         <v>451</v>
       </c>
       <c r="K322" s="11"/>
-    </row>
-    <row r="323" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L322" s="16"/>
+      <c r="M322" s="16"/>
+      <c r="N322" s="16"/>
+      <c r="O322" s="16"/>
+      <c r="P322" s="16"/>
+      <c r="Q322" s="16"/>
+    </row>
+    <row r="323" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A323" s="9">
         <v>44463</v>
       </c>
@@ -28131,8 +30391,14 @@
         <v>453</v>
       </c>
       <c r="K323" s="11"/>
-    </row>
-    <row r="324" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L323" s="16"/>
+      <c r="M323" s="16"/>
+      <c r="N323" s="16"/>
+      <c r="O323" s="16"/>
+      <c r="P323" s="16"/>
+      <c r="Q323" s="16"/>
+    </row>
+    <row r="324" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A324" s="9">
         <v>44463</v>
       </c>
@@ -28164,8 +30430,14 @@
         <v>449</v>
       </c>
       <c r="K324" s="11"/>
-    </row>
-    <row r="325" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L324" s="16"/>
+      <c r="M324" s="16"/>
+      <c r="N324" s="16"/>
+      <c r="O324" s="16"/>
+      <c r="P324" s="16"/>
+      <c r="Q324" s="16"/>
+    </row>
+    <row r="325" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A325" s="9">
         <v>44463</v>
       </c>
@@ -28197,8 +30469,14 @@
         <v>17</v>
       </c>
       <c r="K325" s="11"/>
-    </row>
-    <row r="326" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+      <c r="L325" s="16"/>
+      <c r="M325" s="16"/>
+      <c r="N325" s="16"/>
+      <c r="O325" s="16"/>
+      <c r="P325" s="16"/>
+      <c r="Q325" s="16"/>
+    </row>
+    <row r="326" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A326" s="9">
         <v>44463</v>
       </c>
@@ -28230,8 +30508,14 @@
         <v>488</v>
       </c>
       <c r="K326" s="11"/>
-    </row>
-    <row r="327" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="L326" s="16"/>
+      <c r="M326" s="16"/>
+      <c r="N326" s="16"/>
+      <c r="O326" s="16"/>
+      <c r="P326" s="16"/>
+      <c r="Q326" s="16"/>
+    </row>
+    <row r="327" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A327" s="9">
         <v>44463</v>
       </c>
@@ -28263,8 +30547,14 @@
         <v>458</v>
       </c>
       <c r="K327" s="11"/>
-    </row>
-    <row r="328" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L327" s="16"/>
+      <c r="M327" s="16"/>
+      <c r="N327" s="16"/>
+      <c r="O327" s="16"/>
+      <c r="P327" s="16"/>
+      <c r="Q327" s="16"/>
+    </row>
+    <row r="328" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A328" s="9">
         <v>44463</v>
       </c>
@@ -28296,8 +30586,14 @@
         <v>460</v>
       </c>
       <c r="K328" s="11"/>
-    </row>
-    <row r="329" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L328" s="16"/>
+      <c r="M328" s="16"/>
+      <c r="N328" s="16"/>
+      <c r="O328" s="16"/>
+      <c r="P328" s="16"/>
+      <c r="Q328" s="16"/>
+    </row>
+    <row r="329" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A329" s="9">
         <v>44463</v>
       </c>
@@ -28329,8 +30625,14 @@
         <v>456</v>
       </c>
       <c r="K329" s="11"/>
-    </row>
-    <row r="330" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L329" s="16"/>
+      <c r="M329" s="16"/>
+      <c r="N329" s="16"/>
+      <c r="O329" s="16"/>
+      <c r="P329" s="16"/>
+      <c r="Q329" s="16"/>
+    </row>
+    <row r="330" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A330" s="9">
         <v>44463</v>
       </c>
@@ -28362,8 +30664,14 @@
         <v>17</v>
       </c>
       <c r="K330" s="11"/>
-    </row>
-    <row r="331" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+      <c r="L330" s="16"/>
+      <c r="M330" s="16"/>
+      <c r="N330" s="16"/>
+      <c r="O330" s="16"/>
+      <c r="P330" s="16"/>
+      <c r="Q330" s="16"/>
+    </row>
+    <row r="331" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A331" s="9">
         <v>44463</v>
       </c>
@@ -28395,8 +30703,14 @@
         <v>490</v>
       </c>
       <c r="K331" s="11"/>
-    </row>
-    <row r="332" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+      <c r="L331" s="16"/>
+      <c r="M331" s="16"/>
+      <c r="N331" s="16"/>
+      <c r="O331" s="16"/>
+      <c r="P331" s="16"/>
+      <c r="Q331" s="16"/>
+    </row>
+    <row r="332" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A332" s="9">
         <v>44463</v>
       </c>
@@ -28428,8 +30742,14 @@
         <v>465</v>
       </c>
       <c r="K332" s="11"/>
-    </row>
-    <row r="333" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L332" s="16"/>
+      <c r="M332" s="16"/>
+      <c r="N332" s="16"/>
+      <c r="O332" s="16"/>
+      <c r="P332" s="16"/>
+      <c r="Q332" s="16"/>
+    </row>
+    <row r="333" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A333" s="9">
         <v>44463</v>
       </c>
@@ -28461,8 +30781,14 @@
         <v>467</v>
       </c>
       <c r="K333" s="11"/>
-    </row>
-    <row r="334" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L333" s="16"/>
+      <c r="M333" s="16"/>
+      <c r="N333" s="16"/>
+      <c r="O333" s="16"/>
+      <c r="P333" s="16"/>
+      <c r="Q333" s="16"/>
+    </row>
+    <row r="334" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A334" s="9">
         <v>44463</v>
       </c>
@@ -28494,8 +30820,14 @@
         <v>463</v>
       </c>
       <c r="K334" s="11"/>
-    </row>
-    <row r="335" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L334" s="16"/>
+      <c r="M334" s="16"/>
+      <c r="N334" s="16"/>
+      <c r="O334" s="16"/>
+      <c r="P334" s="16"/>
+      <c r="Q334" s="16"/>
+    </row>
+    <row r="335" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A335" s="9">
         <v>44463</v>
       </c>
@@ -28527,8 +30859,14 @@
         <v>17</v>
       </c>
       <c r="K335" s="11"/>
-    </row>
-    <row r="336" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L335" s="16"/>
+      <c r="M335" s="16"/>
+      <c r="N335" s="16"/>
+      <c r="O335" s="16"/>
+      <c r="P335" s="16"/>
+      <c r="Q335" s="16"/>
+    </row>
+    <row r="336" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A336" s="9">
         <v>44463</v>
       </c>
@@ -28560,8 +30898,14 @@
         <v>500</v>
       </c>
       <c r="K336" s="11"/>
-    </row>
-    <row r="337" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L336" s="16"/>
+      <c r="M336" s="16"/>
+      <c r="N336" s="16"/>
+      <c r="O336" s="16"/>
+      <c r="P336" s="16"/>
+      <c r="Q336" s="16"/>
+    </row>
+    <row r="337" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A337" s="9">
         <v>44463</v>
       </c>
@@ -28593,8 +30937,14 @@
         <v>514</v>
       </c>
       <c r="K337" s="11"/>
-    </row>
-    <row r="338" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L337" s="16"/>
+      <c r="M337" s="16"/>
+      <c r="N337" s="16"/>
+      <c r="O337" s="16"/>
+      <c r="P337" s="16"/>
+      <c r="Q337" s="16"/>
+    </row>
+    <row r="338" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A338" s="9">
         <v>44463</v>
       </c>
@@ -28626,8 +30976,14 @@
         <v>17</v>
       </c>
       <c r="K338" s="11"/>
-    </row>
-    <row r="339" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+      <c r="L338" s="16"/>
+      <c r="M338" s="16"/>
+      <c r="N338" s="16"/>
+      <c r="O338" s="16"/>
+      <c r="P338" s="16"/>
+      <c r="Q338" s="16"/>
+    </row>
+    <row r="339" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A339" s="9">
         <v>44463</v>
       </c>
@@ -28659,8 +31015,14 @@
         <v>362</v>
       </c>
       <c r="K339" s="11"/>
-    </row>
-    <row r="340" spans="1:11" ht="84" x14ac:dyDescent="0.15">
+      <c r="L339" s="16"/>
+      <c r="M339" s="16"/>
+      <c r="N339" s="16"/>
+      <c r="O339" s="16"/>
+      <c r="P339" s="16"/>
+      <c r="Q339" s="16"/>
+    </row>
+    <row r="340" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A340" s="9">
         <v>44463</v>
       </c>
@@ -28692,8 +31054,14 @@
         <v>372</v>
       </c>
       <c r="K340" s="11"/>
-    </row>
-    <row r="341" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L340" s="16"/>
+      <c r="M340" s="16"/>
+      <c r="N340" s="16"/>
+      <c r="O340" s="16"/>
+      <c r="P340" s="16"/>
+      <c r="Q340" s="16"/>
+    </row>
+    <row r="341" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A341" s="9">
         <v>44463</v>
       </c>
@@ -28725,8 +31093,14 @@
         <v>596</v>
       </c>
       <c r="K341" s="11"/>
-    </row>
-    <row r="342" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+      <c r="L341" s="16"/>
+      <c r="M341" s="16"/>
+      <c r="N341" s="16"/>
+      <c r="O341" s="16"/>
+      <c r="P341" s="16"/>
+      <c r="Q341" s="16"/>
+    </row>
+    <row r="342" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A342" s="9">
         <v>44463</v>
       </c>
@@ -28758,8 +31132,14 @@
         <v>599</v>
       </c>
       <c r="K342" s="11"/>
-    </row>
-    <row r="343" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+      <c r="L342" s="16"/>
+      <c r="M342" s="16"/>
+      <c r="N342" s="16"/>
+      <c r="O342" s="16"/>
+      <c r="P342" s="16"/>
+      <c r="Q342" s="16"/>
+    </row>
+    <row r="343" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A343" s="9">
         <v>44463</v>
       </c>
@@ -28791,8 +31171,14 @@
         <v>602</v>
       </c>
       <c r="K343" s="11"/>
-    </row>
-    <row r="344" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="L343" s="16"/>
+      <c r="M343" s="16"/>
+      <c r="N343" s="16"/>
+      <c r="O343" s="16"/>
+      <c r="P343" s="16"/>
+      <c r="Q343" s="16"/>
+    </row>
+    <row r="344" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A344" s="9">
         <v>44463</v>
       </c>
@@ -28824,8 +31210,14 @@
         <v>605</v>
       </c>
       <c r="K344" s="11"/>
-    </row>
-    <row r="345" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="L344" s="16"/>
+      <c r="M344" s="16"/>
+      <c r="N344" s="16"/>
+      <c r="O344" s="16"/>
+      <c r="P344" s="16"/>
+      <c r="Q344" s="16"/>
+    </row>
+    <row r="345" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A345" s="9">
         <v>44463</v>
       </c>
@@ -28857,8 +31249,14 @@
         <v>608</v>
       </c>
       <c r="K345" s="11"/>
-    </row>
-    <row r="346" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="L345" s="16"/>
+      <c r="M345" s="16"/>
+      <c r="N345" s="16"/>
+      <c r="O345" s="16"/>
+      <c r="P345" s="16"/>
+      <c r="Q345" s="16"/>
+    </row>
+    <row r="346" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A346" s="9">
         <v>44463</v>
       </c>
@@ -28890,8 +31288,14 @@
         <v>540</v>
       </c>
       <c r="K346" s="11"/>
-    </row>
-    <row r="347" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="L346" s="16"/>
+      <c r="M346" s="16"/>
+      <c r="N346" s="16"/>
+      <c r="O346" s="16"/>
+      <c r="P346" s="16"/>
+      <c r="Q346" s="16"/>
+    </row>
+    <row r="347" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A347" s="9">
         <v>44463</v>
       </c>
@@ -28923,8 +31327,14 @@
         <v>543</v>
       </c>
       <c r="K347" s="11"/>
-    </row>
-    <row r="348" spans="1:11" ht="126" x14ac:dyDescent="0.15">
+      <c r="L347" s="16"/>
+      <c r="M347" s="16"/>
+      <c r="N347" s="16"/>
+      <c r="O347" s="16"/>
+      <c r="P347" s="16"/>
+      <c r="Q347" s="16"/>
+    </row>
+    <row r="348" spans="1:17" ht="126" hidden="1" x14ac:dyDescent="0.15">
       <c r="A348" s="9">
         <v>44463</v>
       </c>
@@ -28956,8 +31366,14 @@
         <v>548</v>
       </c>
       <c r="K348" s="11"/>
-    </row>
-    <row r="349" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+      <c r="L348" s="16"/>
+      <c r="M348" s="16"/>
+      <c r="N348" s="16"/>
+      <c r="O348" s="16"/>
+      <c r="P348" s="16"/>
+      <c r="Q348" s="16"/>
+    </row>
+    <row r="349" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A349" s="9">
         <v>44463</v>
       </c>
@@ -28989,8 +31405,14 @@
         <v>551</v>
       </c>
       <c r="K349" s="11"/>
-    </row>
-    <row r="350" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+      <c r="L349" s="16"/>
+      <c r="M349" s="16"/>
+      <c r="N349" s="16"/>
+      <c r="O349" s="16"/>
+      <c r="P349" s="16"/>
+      <c r="Q349" s="16"/>
+    </row>
+    <row r="350" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A350" s="9">
         <v>44463</v>
       </c>
@@ -29022,8 +31444,14 @@
         <v>554</v>
       </c>
       <c r="K350" s="11"/>
-    </row>
-    <row r="351" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+      <c r="L350" s="16"/>
+      <c r="M350" s="16"/>
+      <c r="N350" s="16"/>
+      <c r="O350" s="16"/>
+      <c r="P350" s="16"/>
+      <c r="Q350" s="16"/>
+    </row>
+    <row r="351" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A351" s="9">
         <v>44463</v>
       </c>
@@ -29055,8 +31483,14 @@
         <v>557</v>
       </c>
       <c r="K351" s="11"/>
-    </row>
-    <row r="352" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+      <c r="L351" s="16"/>
+      <c r="M351" s="16"/>
+      <c r="N351" s="16"/>
+      <c r="O351" s="16"/>
+      <c r="P351" s="16"/>
+      <c r="Q351" s="16"/>
+    </row>
+    <row r="352" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A352" s="9">
         <v>44463</v>
       </c>
@@ -29088,8 +31522,14 @@
         <v>560</v>
       </c>
       <c r="K352" s="11"/>
-    </row>
-    <row r="353" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+      <c r="L352" s="16"/>
+      <c r="M352" s="16"/>
+      <c r="N352" s="16"/>
+      <c r="O352" s="16"/>
+      <c r="P352" s="16"/>
+      <c r="Q352" s="16"/>
+    </row>
+    <row r="353" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A353" s="9">
         <v>44463</v>
       </c>
@@ -29121,8 +31561,14 @@
         <v>563</v>
       </c>
       <c r="K353" s="11"/>
-    </row>
-    <row r="354" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="L353" s="16"/>
+      <c r="M353" s="16"/>
+      <c r="N353" s="16"/>
+      <c r="O353" s="16"/>
+      <c r="P353" s="16"/>
+      <c r="Q353" s="16"/>
+    </row>
+    <row r="354" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A354" s="9">
         <v>44463</v>
       </c>
@@ -29154,8 +31600,14 @@
         <v>566</v>
       </c>
       <c r="K354" s="11"/>
-    </row>
-    <row r="355" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="L354" s="16"/>
+      <c r="M354" s="16"/>
+      <c r="N354" s="16"/>
+      <c r="O354" s="16"/>
+      <c r="P354" s="16"/>
+      <c r="Q354" s="16"/>
+    </row>
+    <row r="355" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A355" s="9">
         <v>44463</v>
       </c>
@@ -29187,8 +31639,14 @@
         <v>557</v>
       </c>
       <c r="K355" s="11"/>
-    </row>
-    <row r="356" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="L355" s="16"/>
+      <c r="M355" s="16"/>
+      <c r="N355" s="16"/>
+      <c r="O355" s="16"/>
+      <c r="P355" s="16"/>
+      <c r="Q355" s="16"/>
+    </row>
+    <row r="356" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A356" s="9">
         <v>44463</v>
       </c>
@@ -29220,8 +31678,14 @@
         <v>571</v>
       </c>
       <c r="K356" s="11"/>
-    </row>
-    <row r="357" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="L356" s="16"/>
+      <c r="M356" s="16"/>
+      <c r="N356" s="16"/>
+      <c r="O356" s="16"/>
+      <c r="P356" s="16"/>
+      <c r="Q356" s="16"/>
+    </row>
+    <row r="357" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A357" s="9">
         <v>44463</v>
       </c>
@@ -29253,8 +31717,14 @@
         <v>574</v>
       </c>
       <c r="K357" s="11"/>
-    </row>
-    <row r="358" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="L357" s="16"/>
+      <c r="M357" s="16"/>
+      <c r="N357" s="16"/>
+      <c r="O357" s="16"/>
+      <c r="P357" s="16"/>
+      <c r="Q357" s="16"/>
+    </row>
+    <row r="358" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A358" s="9">
         <v>44463</v>
       </c>
@@ -29286,8 +31756,14 @@
         <v>577</v>
       </c>
       <c r="K358" s="11"/>
-    </row>
-    <row r="359" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="L358" s="16"/>
+      <c r="M358" s="16"/>
+      <c r="N358" s="16"/>
+      <c r="O358" s="16"/>
+      <c r="P358" s="16"/>
+      <c r="Q358" s="16"/>
+    </row>
+    <row r="359" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A359" s="9">
         <v>44463</v>
       </c>
@@ -29319,8 +31795,14 @@
         <v>580</v>
       </c>
       <c r="K359" s="11"/>
-    </row>
-    <row r="360" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="L359" s="16"/>
+      <c r="M359" s="16"/>
+      <c r="N359" s="16"/>
+      <c r="O359" s="16"/>
+      <c r="P359" s="16"/>
+      <c r="Q359" s="16"/>
+    </row>
+    <row r="360" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A360" s="9">
         <v>44463</v>
       </c>
@@ -29352,8 +31834,14 @@
         <v>583</v>
       </c>
       <c r="K360" s="11"/>
-    </row>
-    <row r="361" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="L360" s="16"/>
+      <c r="M360" s="16"/>
+      <c r="N360" s="16"/>
+      <c r="O360" s="16"/>
+      <c r="P360" s="16"/>
+      <c r="Q360" s="16"/>
+    </row>
+    <row r="361" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A361" s="9">
         <v>44463</v>
       </c>
@@ -29385,8 +31873,14 @@
         <v>586</v>
       </c>
       <c r="K361" s="11"/>
-    </row>
-    <row r="362" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="L361" s="16"/>
+      <c r="M361" s="16"/>
+      <c r="N361" s="16"/>
+      <c r="O361" s="16"/>
+      <c r="P361" s="16"/>
+      <c r="Q361" s="16"/>
+    </row>
+    <row r="362" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A362" s="9">
         <v>44463</v>
       </c>
@@ -29418,8 +31912,14 @@
         <v>589</v>
       </c>
       <c r="K362" s="11"/>
-    </row>
-    <row r="363" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="L362" s="16"/>
+      <c r="M362" s="16"/>
+      <c r="N362" s="16"/>
+      <c r="O362" s="16"/>
+      <c r="P362" s="16"/>
+      <c r="Q362" s="16"/>
+    </row>
+    <row r="363" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A363" s="9">
         <v>44463</v>
       </c>
@@ -29451,9 +31951,20 @@
         <v>592</v>
       </c>
       <c r="K363" s="11"/>
+      <c r="L363" s="16"/>
+      <c r="M363" s="16"/>
+      <c r="N363" s="16"/>
+      <c r="O363" s="16"/>
+      <c r="P363" s="16"/>
+      <c r="Q363" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K363">
+  <autoFilter ref="A1:K363" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="10">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K363">
       <sortCondition ref="C1:C136"/>
     </sortState>

--- a/db/load/cdisc/ct/changes/2021-09-24/SEND Terminology Changes 2021-09-24.xlsx
+++ b/db/load/cdisc/ct/changes/2021-09-24/SEND Terminology Changes 2021-09-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/changes/2021-09-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCB636C-C760-EC4D-86CF-72EC6A3F0261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEF39EA-6CD7-0D4C-901E-4669C27191F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35540" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SEND Terminology Changes'!$A$1:$K$363</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3487" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3515" uniqueCount="686">
   <si>
     <t>Release Date</t>
   </si>
@@ -2063,6 +2074,24 @@
   </si>
   <si>
     <t>In SDTM changes</t>
+  </si>
+  <si>
+    <t>C88025</t>
+  </si>
+  <si>
+    <t>C938</t>
+  </si>
+  <si>
+    <t>C124614</t>
+  </si>
+  <si>
+    <t>C53998</t>
+  </si>
+  <si>
+    <t>C53999</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -2155,7 +2184,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2202,6 +2231,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -17345,8 +17377,8 @@
   <dimension ref="A1:Q363"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O247" sqref="O247"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q244" sqref="Q244:Q247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -17356,10 +17388,11 @@
     <col min="3" max="4" width="10.6640625" style="5" customWidth="1"/>
     <col min="5" max="6" width="14.6640625" style="5" customWidth="1"/>
     <col min="7" max="8" width="24.6640625" style="5" customWidth="1"/>
-    <col min="9" max="10" width="45.6640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="45.6640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" style="5" customWidth="1"/>
     <col min="11" max="11" width="24.6640625" style="5" customWidth="1"/>
     <col min="12" max="16" width="9.1640625" style="5"/>
-    <col min="17" max="17" width="19.1640625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="34" style="5" customWidth="1"/>
     <col min="18" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
@@ -27262,7 +27295,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="244" spans="1:17" ht="28" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:17" ht="42" x14ac:dyDescent="0.15">
       <c r="A244" s="9">
         <v>44463</v>
       </c>
@@ -27296,14 +27329,27 @@
       <c r="K244" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="L244" s="16"/>
-      <c r="M244" s="16"/>
-      <c r="N244" s="16"/>
-      <c r="O244" s="16"/>
-      <c r="P244" s="16"/>
-      <c r="Q244" s="16"/>
-    </row>
-    <row r="245" spans="1:17" ht="28" x14ac:dyDescent="0.15">
+      <c r="L244" s="17" t="s">
+        <v>685</v>
+      </c>
+      <c r="M244" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="N244" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="O244" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="P244" s="18" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q244" s="10" t="str">
+        <f>K244</f>
+        <v>Remove C39807 from codelist and replace with C9385.</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" ht="42" x14ac:dyDescent="0.15">
       <c r="A245" s="9">
         <v>44463</v>
       </c>
@@ -27337,14 +27383,27 @@
       <c r="K245" s="10" t="s">
         <v>664</v>
       </c>
-      <c r="L245" s="16"/>
-      <c r="M245" s="16"/>
-      <c r="N245" s="16"/>
-      <c r="O245" s="16"/>
-      <c r="P245" s="16"/>
-      <c r="Q245" s="16"/>
-    </row>
-    <row r="246" spans="1:17" ht="28" x14ac:dyDescent="0.15">
+      <c r="L245" s="17" t="s">
+        <v>685</v>
+      </c>
+      <c r="M245" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="N245" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="O245" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="P245" s="18" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q245" s="10" t="str">
+        <f>K245</f>
+        <v>Remove C6803 from codelist and replace with C124614.</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17" ht="42" x14ac:dyDescent="0.15">
       <c r="A246" s="9">
         <v>44463</v>
       </c>
@@ -27378,14 +27437,27 @@
       <c r="K246" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="L246" s="16"/>
-      <c r="M246" s="16"/>
-      <c r="N246" s="16"/>
-      <c r="O246" s="16"/>
-      <c r="P246" s="16"/>
-      <c r="Q246" s="16"/>
-    </row>
-    <row r="247" spans="1:17" ht="28" x14ac:dyDescent="0.15">
+      <c r="L246" s="17" t="s">
+        <v>685</v>
+      </c>
+      <c r="M246" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="N246" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="O246" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="P246" s="18" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q246" s="10" t="str">
+        <f>K246</f>
+        <v>Remove C81854 from codelist and replace with C53998.</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17" ht="42" x14ac:dyDescent="0.15">
       <c r="A247" s="9">
         <v>44463</v>
       </c>
@@ -27419,12 +27491,25 @@
       <c r="K247" s="10" t="s">
         <v>667</v>
       </c>
-      <c r="L247" s="16"/>
-      <c r="M247" s="16"/>
-      <c r="N247" s="16"/>
-      <c r="O247" s="16"/>
-      <c r="P247" s="16"/>
-      <c r="Q247" s="16"/>
+      <c r="L247" s="17" t="s">
+        <v>685</v>
+      </c>
+      <c r="M247" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="N247" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="O247" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="P247" s="18" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q247" s="10" t="str">
+        <f>K247</f>
+        <v>Remove C81855 from codelist and replace with C53999.</v>
+      </c>
     </row>
     <row r="248" spans="1:17" ht="168" x14ac:dyDescent="0.15">
       <c r="A248" s="9">
@@ -27460,12 +27545,16 @@
       <c r="K248" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="L248" s="16"/>
+      <c r="L248" s="17" t="s">
+        <v>678</v>
+      </c>
       <c r="M248" s="16"/>
       <c r="N248" s="16"/>
       <c r="O248" s="16"/>
       <c r="P248" s="16"/>
-      <c r="Q248" s="16"/>
+      <c r="Q248" s="11" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="249" spans="1:17" ht="168" x14ac:dyDescent="0.15">
       <c r="A249" s="9">
@@ -27501,12 +27590,16 @@
       <c r="K249" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="L249" s="16"/>
+      <c r="L249" s="17" t="s">
+        <v>678</v>
+      </c>
       <c r="M249" s="16"/>
       <c r="N249" s="16"/>
       <c r="O249" s="16"/>
       <c r="P249" s="16"/>
-      <c r="Q249" s="16"/>
+      <c r="Q249" s="11" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="250" spans="1:17" ht="168" x14ac:dyDescent="0.15">
       <c r="A250" s="9">
@@ -27542,12 +27635,16 @@
       <c r="K250" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="L250" s="16"/>
+      <c r="L250" s="17" t="s">
+        <v>678</v>
+      </c>
       <c r="M250" s="16"/>
       <c r="N250" s="16"/>
       <c r="O250" s="16"/>
       <c r="P250" s="16"/>
-      <c r="Q250" s="16"/>
+      <c r="Q250" s="11" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="251" spans="1:17" ht="168" x14ac:dyDescent="0.15">
       <c r="A251" s="9">
@@ -27583,12 +27680,16 @@
       <c r="K251" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="L251" s="16"/>
+      <c r="L251" s="17" t="s">
+        <v>678</v>
+      </c>
       <c r="M251" s="16"/>
       <c r="N251" s="16"/>
       <c r="O251" s="16"/>
       <c r="P251" s="16"/>
-      <c r="Q251" s="16"/>
+      <c r="Q251" s="11" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="252" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A252" s="9">

--- a/db/load/cdisc/ct/changes/2021-09-24/SEND Terminology Changes 2021-09-24.xlsx
+++ b/db/load/cdisc/ct/changes/2021-09-24/SEND Terminology Changes 2021-09-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/changes/2021-09-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEF39EA-6CD7-0D4C-901E-4669C27191F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A260AAA-0DC5-EC4D-9E76-3AD4F0BC2758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35540" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17373,11 +17373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q363"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q244" sqref="Q244:Q247"/>
     </sheetView>
   </sheetViews>
@@ -17449,7 +17448,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>44463</v>
       </c>
@@ -17488,7 +17487,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>44463</v>
       </c>
@@ -17527,7 +17526,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>44463</v>
       </c>
@@ -17566,7 +17565,7 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>44463</v>
       </c>
@@ -17605,7 +17604,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>44463</v>
       </c>
@@ -17644,7 +17643,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>44463</v>
       </c>
@@ -17683,7 +17682,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>44463</v>
       </c>
@@ -17722,7 +17721,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>44463</v>
       </c>
@@ -17761,7 +17760,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>44463</v>
       </c>
@@ -17800,7 +17799,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>44463</v>
       </c>
@@ -17839,7 +17838,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>44463</v>
       </c>
@@ -17878,7 +17877,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>44463</v>
       </c>
@@ -17917,7 +17916,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>44463</v>
       </c>
@@ -17956,7 +17955,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>44463</v>
       </c>
@@ -17995,7 +17994,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>44463</v>
       </c>
@@ -18034,7 +18033,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>44463</v>
       </c>
@@ -18073,7 +18072,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>44463</v>
       </c>
@@ -18112,7 +18111,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>44463</v>
       </c>
@@ -18151,7 +18150,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>44463</v>
       </c>
@@ -18190,7 +18189,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>44463</v>
       </c>
@@ -18229,7 +18228,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>44463</v>
       </c>
@@ -18268,7 +18267,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>44463</v>
       </c>
@@ -18307,7 +18306,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
-    <row r="24" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>44463</v>
       </c>
@@ -18346,7 +18345,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
-    <row r="25" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>44463</v>
       </c>
@@ -18385,7 +18384,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
-    <row r="26" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>44463</v>
       </c>
@@ -18424,7 +18423,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
-    <row r="27" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>44463</v>
       </c>
@@ -18463,7 +18462,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
-    <row r="28" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>44463</v>
       </c>
@@ -18502,7 +18501,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
-    <row r="29" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>44463</v>
       </c>
@@ -18541,7 +18540,7 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
-    <row r="30" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>44463</v>
       </c>
@@ -18580,7 +18579,7 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
-    <row r="31" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>44463</v>
       </c>
@@ -18619,7 +18618,7 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
-    <row r="32" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>44463</v>
       </c>
@@ -18658,7 +18657,7 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
-    <row r="33" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>44463</v>
       </c>
@@ -18697,7 +18696,7 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
-    <row r="34" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>44463</v>
       </c>
@@ -18736,7 +18735,7 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
-    <row r="35" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>44463</v>
       </c>
@@ -18775,7 +18774,7 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
-    <row r="36" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>44463</v>
       </c>
@@ -18814,7 +18813,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
     </row>
-    <row r="37" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>44463</v>
       </c>
@@ -18853,7 +18852,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
-    <row r="38" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>44463</v>
       </c>
@@ -18892,7 +18891,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>44463</v>
       </c>
@@ -18931,7 +18930,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>44463</v>
       </c>
@@ -18970,7 +18969,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>44463</v>
       </c>
@@ -19009,7 +19008,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
-    <row r="42" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>44463</v>
       </c>
@@ -19048,7 +19047,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>44463</v>
       </c>
@@ -19087,7 +19086,7 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>44463</v>
       </c>
@@ -19126,7 +19125,7 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>44463</v>
       </c>
@@ -19165,7 +19164,7 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
     </row>
-    <row r="46" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>44463</v>
       </c>
@@ -19204,7 +19203,7 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>44463</v>
       </c>
@@ -19243,7 +19242,7 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>44463</v>
       </c>
@@ -19282,7 +19281,7 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <v>44463</v>
       </c>
@@ -19321,7 +19320,7 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
     </row>
-    <row r="50" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>44463</v>
       </c>
@@ -19360,7 +19359,7 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
     </row>
-    <row r="51" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <v>44463</v>
       </c>
@@ -19399,7 +19398,7 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <v>44463</v>
       </c>
@@ -19438,7 +19437,7 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>44463</v>
       </c>
@@ -19477,7 +19476,7 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
     </row>
-    <row r="54" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>44463</v>
       </c>
@@ -19516,7 +19515,7 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
     </row>
-    <row r="55" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
         <v>44463</v>
       </c>
@@ -19555,7 +19554,7 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
     </row>
-    <row r="56" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
         <v>44463</v>
       </c>
@@ -19594,7 +19593,7 @@
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
     </row>
-    <row r="57" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
         <v>44463</v>
       </c>
@@ -19633,7 +19632,7 @@
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
     </row>
-    <row r="58" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <v>44463</v>
       </c>
@@ -19672,7 +19671,7 @@
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
     </row>
-    <row r="59" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
         <v>44463</v>
       </c>
@@ -19711,7 +19710,7 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
     </row>
-    <row r="60" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
         <v>44463</v>
       </c>
@@ -19750,7 +19749,7 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
     </row>
-    <row r="61" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
         <v>44463</v>
       </c>
@@ -19789,7 +19788,7 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
     </row>
-    <row r="62" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
         <v>44463</v>
       </c>
@@ -19828,7 +19827,7 @@
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
     </row>
-    <row r="63" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
         <v>44463</v>
       </c>
@@ -19867,7 +19866,7 @@
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
     </row>
-    <row r="64" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
         <v>44463</v>
       </c>
@@ -19906,7 +19905,7 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
     </row>
-    <row r="65" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
         <v>44463</v>
       </c>
@@ -19945,7 +19944,7 @@
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
     </row>
-    <row r="66" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A66" s="9">
         <v>44463</v>
       </c>
@@ -19984,7 +19983,7 @@
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
     </row>
-    <row r="67" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A67" s="9">
         <v>44463</v>
       </c>
@@ -20023,7 +20022,7 @@
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
     </row>
-    <row r="68" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A68" s="9">
         <v>44463</v>
       </c>
@@ -20062,7 +20061,7 @@
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
     </row>
-    <row r="69" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
         <v>44463</v>
       </c>
@@ -20101,7 +20100,7 @@
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
     </row>
-    <row r="70" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A70" s="9">
         <v>44463</v>
       </c>
@@ -20140,7 +20139,7 @@
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
     </row>
-    <row r="71" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A71" s="9">
         <v>44463</v>
       </c>
@@ -20179,7 +20178,7 @@
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
     </row>
-    <row r="72" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A72" s="9">
         <v>44463</v>
       </c>
@@ -20218,7 +20217,7 @@
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
     </row>
-    <row r="73" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
         <v>44463</v>
       </c>
@@ -20257,7 +20256,7 @@
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
     </row>
-    <row r="74" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A74" s="9">
         <v>44463</v>
       </c>
@@ -20296,7 +20295,7 @@
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
     </row>
-    <row r="75" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A75" s="9">
         <v>44463</v>
       </c>
@@ -20335,7 +20334,7 @@
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
     </row>
-    <row r="76" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A76" s="9">
         <v>44463</v>
       </c>
@@ -20374,7 +20373,7 @@
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
     </row>
-    <row r="77" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A77" s="9">
         <v>44463</v>
       </c>
@@ -20413,7 +20412,7 @@
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
     </row>
-    <row r="78" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A78" s="9">
         <v>44463</v>
       </c>
@@ -20452,7 +20451,7 @@
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
     </row>
-    <row r="79" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A79" s="9">
         <v>44463</v>
       </c>
@@ -20491,7 +20490,7 @@
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
     </row>
-    <row r="80" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A80" s="9">
         <v>44463</v>
       </c>
@@ -20530,7 +20529,7 @@
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
     </row>
-    <row r="81" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A81" s="9">
         <v>44463</v>
       </c>
@@ -20569,7 +20568,7 @@
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
     </row>
-    <row r="82" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A82" s="9">
         <v>44463</v>
       </c>
@@ -20608,7 +20607,7 @@
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
     </row>
-    <row r="83" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A83" s="9">
         <v>44463</v>
       </c>
@@ -20647,7 +20646,7 @@
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
     </row>
-    <row r="84" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A84" s="9">
         <v>44463</v>
       </c>
@@ -20686,7 +20685,7 @@
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
     </row>
-    <row r="85" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A85" s="9">
         <v>44463</v>
       </c>
@@ -20725,7 +20724,7 @@
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
     </row>
-    <row r="86" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A86" s="9">
         <v>44463</v>
       </c>
@@ -20764,7 +20763,7 @@
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
     </row>
-    <row r="87" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A87" s="9">
         <v>44463</v>
       </c>
@@ -20803,7 +20802,7 @@
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
     </row>
-    <row r="88" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A88" s="9">
         <v>44463</v>
       </c>
@@ -20842,7 +20841,7 @@
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
     </row>
-    <row r="89" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A89" s="9">
         <v>44463</v>
       </c>
@@ -20881,7 +20880,7 @@
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
     </row>
-    <row r="90" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A90" s="9">
         <v>44463</v>
       </c>
@@ -20920,7 +20919,7 @@
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
     </row>
-    <row r="91" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A91" s="9">
         <v>44463</v>
       </c>
@@ -20959,7 +20958,7 @@
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
     </row>
-    <row r="92" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A92" s="9">
         <v>44463</v>
       </c>
@@ -20998,7 +20997,7 @@
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
     </row>
-    <row r="93" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A93" s="9">
         <v>44463</v>
       </c>
@@ -21037,7 +21036,7 @@
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
     </row>
-    <row r="94" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A94" s="9">
         <v>44463</v>
       </c>
@@ -21076,7 +21075,7 @@
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
     </row>
-    <row r="95" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A95" s="9">
         <v>44463</v>
       </c>
@@ -21115,7 +21114,7 @@
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
     </row>
-    <row r="96" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A96" s="9">
         <v>44463</v>
       </c>
@@ -21154,7 +21153,7 @@
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
     </row>
-    <row r="97" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A97" s="9">
         <v>44463</v>
       </c>
@@ -21193,7 +21192,7 @@
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
     </row>
-    <row r="98" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A98" s="9">
         <v>44463</v>
       </c>
@@ -21232,7 +21231,7 @@
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
     </row>
-    <row r="99" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A99" s="9">
         <v>44463</v>
       </c>
@@ -21271,7 +21270,7 @@
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
     </row>
-    <row r="100" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A100" s="9">
         <v>44463</v>
       </c>
@@ -21310,7 +21309,7 @@
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
     </row>
-    <row r="101" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A101" s="9">
         <v>44463</v>
       </c>
@@ -21349,7 +21348,7 @@
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
     </row>
-    <row r="102" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A102" s="9">
         <v>44463</v>
       </c>
@@ -21388,7 +21387,7 @@
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
     </row>
-    <row r="103" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A103" s="9">
         <v>44463</v>
       </c>
@@ -21427,7 +21426,7 @@
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
     </row>
-    <row r="104" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A104" s="9">
         <v>44463</v>
       </c>
@@ -21466,7 +21465,7 @@
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
     </row>
-    <row r="105" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A105" s="9">
         <v>44463</v>
       </c>
@@ -21505,7 +21504,7 @@
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
     </row>
-    <row r="106" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A106" s="9">
         <v>44463</v>
       </c>
@@ -21544,7 +21543,7 @@
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
     </row>
-    <row r="107" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A107" s="9">
         <v>44463</v>
       </c>
@@ -21583,7 +21582,7 @@
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
     </row>
-    <row r="108" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A108" s="9">
         <v>44463</v>
       </c>
@@ -21622,7 +21621,7 @@
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
     </row>
-    <row r="109" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A109" s="9">
         <v>44463</v>
       </c>
@@ -21661,7 +21660,7 @@
       <c r="P109" s="2"/>
       <c r="Q109" s="2"/>
     </row>
-    <row r="110" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A110" s="9">
         <v>44463</v>
       </c>
@@ -21700,7 +21699,7 @@
       <c r="P110" s="2"/>
       <c r="Q110" s="2"/>
     </row>
-    <row r="111" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A111" s="9">
         <v>44463</v>
       </c>
@@ -21739,7 +21738,7 @@
       <c r="P111" s="2"/>
       <c r="Q111" s="2"/>
     </row>
-    <row r="112" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A112" s="9">
         <v>44463</v>
       </c>
@@ -21778,7 +21777,7 @@
       <c r="P112" s="2"/>
       <c r="Q112" s="2"/>
     </row>
-    <row r="113" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A113" s="9">
         <v>44463</v>
       </c>
@@ -21817,7 +21816,7 @@
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
     </row>
-    <row r="114" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A114" s="9">
         <v>44463</v>
       </c>
@@ -21856,7 +21855,7 @@
       <c r="P114" s="2"/>
       <c r="Q114" s="2"/>
     </row>
-    <row r="115" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A115" s="9">
         <v>44463</v>
       </c>
@@ -21895,7 +21894,7 @@
       <c r="P115" s="2"/>
       <c r="Q115" s="2"/>
     </row>
-    <row r="116" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A116" s="9">
         <v>44463</v>
       </c>
@@ -21934,7 +21933,7 @@
       <c r="P116" s="2"/>
       <c r="Q116" s="2"/>
     </row>
-    <row r="117" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A117" s="9">
         <v>44463</v>
       </c>
@@ -21973,7 +21972,7 @@
       <c r="P117" s="2"/>
       <c r="Q117" s="2"/>
     </row>
-    <row r="118" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A118" s="9">
         <v>44463</v>
       </c>
@@ -22012,7 +22011,7 @@
       <c r="P118" s="2"/>
       <c r="Q118" s="2"/>
     </row>
-    <row r="119" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A119" s="9">
         <v>44463</v>
       </c>
@@ -22051,7 +22050,7 @@
       <c r="P119" s="2"/>
       <c r="Q119" s="2"/>
     </row>
-    <row r="120" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A120" s="9">
         <v>44463</v>
       </c>
@@ -22090,7 +22089,7 @@
       <c r="P120" s="2"/>
       <c r="Q120" s="2"/>
     </row>
-    <row r="121" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A121" s="9">
         <v>44463</v>
       </c>
@@ -22129,7 +22128,7 @@
       <c r="P121" s="2"/>
       <c r="Q121" s="2"/>
     </row>
-    <row r="122" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A122" s="9">
         <v>44463</v>
       </c>
@@ -22168,7 +22167,7 @@
       <c r="P122" s="2"/>
       <c r="Q122" s="2"/>
     </row>
-    <row r="123" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A123" s="9">
         <v>44463</v>
       </c>
@@ -22207,7 +22206,7 @@
       <c r="P123" s="2"/>
       <c r="Q123" s="2"/>
     </row>
-    <row r="124" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A124" s="9">
         <v>44463</v>
       </c>
@@ -22246,7 +22245,7 @@
       <c r="P124" s="2"/>
       <c r="Q124" s="2"/>
     </row>
-    <row r="125" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A125" s="9">
         <v>44463</v>
       </c>
@@ -22285,7 +22284,7 @@
       <c r="P125" s="2"/>
       <c r="Q125" s="2"/>
     </row>
-    <row r="126" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A126" s="9">
         <v>44463</v>
       </c>
@@ -22324,7 +22323,7 @@
       <c r="P126" s="2"/>
       <c r="Q126" s="2"/>
     </row>
-    <row r="127" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A127" s="9">
         <v>44463</v>
       </c>
@@ -22363,7 +22362,7 @@
       <c r="P127" s="2"/>
       <c r="Q127" s="2"/>
     </row>
-    <row r="128" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A128" s="9">
         <v>44463</v>
       </c>
@@ -22402,7 +22401,7 @@
       <c r="P128" s="2"/>
       <c r="Q128" s="2"/>
     </row>
-    <row r="129" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A129" s="9">
         <v>44463</v>
       </c>
@@ -22441,7 +22440,7 @@
       <c r="P129" s="2"/>
       <c r="Q129" s="2"/>
     </row>
-    <row r="130" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.2">
       <c r="A130" s="9">
         <v>44463</v>
       </c>
@@ -22480,7 +22479,7 @@
       <c r="P130" s="2"/>
       <c r="Q130" s="2"/>
     </row>
-    <row r="131" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A131" s="9">
         <v>44463</v>
       </c>
@@ -22519,7 +22518,7 @@
       <c r="P131" s="2"/>
       <c r="Q131" s="2"/>
     </row>
-    <row r="132" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A132" s="9">
         <v>44463</v>
       </c>
@@ -22558,7 +22557,7 @@
       <c r="P132" s="2"/>
       <c r="Q132" s="2"/>
     </row>
-    <row r="133" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A133" s="9">
         <v>44463</v>
       </c>
@@ -22597,7 +22596,7 @@
       <c r="P133" s="2"/>
       <c r="Q133" s="2"/>
     </row>
-    <row r="134" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A134" s="9">
         <v>44463</v>
       </c>
@@ -22636,7 +22635,7 @@
       <c r="P134" s="2"/>
       <c r="Q134" s="2"/>
     </row>
-    <row r="135" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.2">
       <c r="A135" s="9">
         <v>44463</v>
       </c>
@@ -22675,7 +22674,7 @@
       <c r="P135" s="2"/>
       <c r="Q135" s="2"/>
     </row>
-    <row r="136" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.2">
       <c r="A136" s="9">
         <v>44463</v>
       </c>
@@ -22714,7 +22713,7 @@
       <c r="P136" s="2"/>
       <c r="Q136" s="2"/>
     </row>
-    <row r="137" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:17" ht="42" x14ac:dyDescent="0.15">
       <c r="A137" s="9">
         <v>44463</v>
       </c>
@@ -22753,7 +22752,7 @@
       <c r="P137" s="16"/>
       <c r="Q137" s="16"/>
     </row>
-    <row r="138" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A138" s="9">
         <v>44463</v>
       </c>
@@ -22792,7 +22791,7 @@
       <c r="P138" s="16"/>
       <c r="Q138" s="16"/>
     </row>
-    <row r="139" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A139" s="9">
         <v>44463</v>
       </c>
@@ -22831,7 +22830,7 @@
       <c r="P139" s="16"/>
       <c r="Q139" s="16"/>
     </row>
-    <row r="140" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A140" s="9">
         <v>44463</v>
       </c>
@@ -22870,7 +22869,7 @@
       <c r="P140" s="16"/>
       <c r="Q140" s="16"/>
     </row>
-    <row r="141" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:17" ht="42" x14ac:dyDescent="0.15">
       <c r="A141" s="9">
         <v>44463</v>
       </c>
@@ -22909,7 +22908,7 @@
       <c r="P141" s="16"/>
       <c r="Q141" s="16"/>
     </row>
-    <row r="142" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A142" s="9">
         <v>44463</v>
       </c>
@@ -22948,7 +22947,7 @@
       <c r="P142" s="16"/>
       <c r="Q142" s="16"/>
     </row>
-    <row r="143" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A143" s="9">
         <v>44463</v>
       </c>
@@ -22987,7 +22986,7 @@
       <c r="P143" s="16"/>
       <c r="Q143" s="16"/>
     </row>
-    <row r="144" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A144" s="9">
         <v>44463</v>
       </c>
@@ -23026,7 +23025,7 @@
       <c r="P144" s="16"/>
       <c r="Q144" s="16"/>
     </row>
-    <row r="145" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A145" s="9">
         <v>44463</v>
       </c>
@@ -23065,7 +23064,7 @@
       <c r="P145" s="16"/>
       <c r="Q145" s="16"/>
     </row>
-    <row r="146" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A146" s="9">
         <v>44463</v>
       </c>
@@ -23104,7 +23103,7 @@
       <c r="P146" s="16"/>
       <c r="Q146" s="16"/>
     </row>
-    <row r="147" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A147" s="9">
         <v>44463</v>
       </c>
@@ -23143,7 +23142,7 @@
       <c r="P147" s="16"/>
       <c r="Q147" s="16"/>
     </row>
-    <row r="148" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A148" s="9">
         <v>44463</v>
       </c>
@@ -23182,7 +23181,7 @@
       <c r="P148" s="16"/>
       <c r="Q148" s="16"/>
     </row>
-    <row r="149" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A149" s="9">
         <v>44463</v>
       </c>
@@ -23221,7 +23220,7 @@
       <c r="P149" s="16"/>
       <c r="Q149" s="16"/>
     </row>
-    <row r="150" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A150" s="9">
         <v>44463</v>
       </c>
@@ -23260,7 +23259,7 @@
       <c r="P150" s="16"/>
       <c r="Q150" s="16"/>
     </row>
-    <row r="151" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A151" s="9">
         <v>44463</v>
       </c>
@@ -23299,7 +23298,7 @@
       <c r="P151" s="16"/>
       <c r="Q151" s="16"/>
     </row>
-    <row r="152" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A152" s="9">
         <v>44463</v>
       </c>
@@ -23338,7 +23337,7 @@
       <c r="P152" s="16"/>
       <c r="Q152" s="16"/>
     </row>
-    <row r="153" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A153" s="9">
         <v>44463</v>
       </c>
@@ -23377,7 +23376,7 @@
       <c r="P153" s="16"/>
       <c r="Q153" s="16"/>
     </row>
-    <row r="154" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A154" s="9">
         <v>44463</v>
       </c>
@@ -23416,7 +23415,7 @@
       <c r="P154" s="16"/>
       <c r="Q154" s="16"/>
     </row>
-    <row r="155" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A155" s="9">
         <v>44463</v>
       </c>
@@ -23455,7 +23454,7 @@
       <c r="P155" s="16"/>
       <c r="Q155" s="16"/>
     </row>
-    <row r="156" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A156" s="9">
         <v>44463</v>
       </c>
@@ -23494,7 +23493,7 @@
       <c r="P156" s="16"/>
       <c r="Q156" s="16"/>
     </row>
-    <row r="157" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A157" s="9">
         <v>44463</v>
       </c>
@@ -23533,7 +23532,7 @@
       <c r="P157" s="16"/>
       <c r="Q157" s="16"/>
     </row>
-    <row r="158" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A158" s="9">
         <v>44463</v>
       </c>
@@ -23572,7 +23571,7 @@
       <c r="P158" s="16"/>
       <c r="Q158" s="16"/>
     </row>
-    <row r="159" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A159" s="9">
         <v>44463</v>
       </c>
@@ -23611,7 +23610,7 @@
       <c r="P159" s="16"/>
       <c r="Q159" s="16"/>
     </row>
-    <row r="160" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A160" s="9">
         <v>44463</v>
       </c>
@@ -23650,7 +23649,7 @@
       <c r="P160" s="16"/>
       <c r="Q160" s="16"/>
     </row>
-    <row r="161" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A161" s="9">
         <v>44463</v>
       </c>
@@ -23689,7 +23688,7 @@
       <c r="P161" s="16"/>
       <c r="Q161" s="16"/>
     </row>
-    <row r="162" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A162" s="9">
         <v>44463</v>
       </c>
@@ -23728,7 +23727,7 @@
       <c r="P162" s="16"/>
       <c r="Q162" s="16"/>
     </row>
-    <row r="163" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A163" s="9">
         <v>44463</v>
       </c>
@@ -23767,7 +23766,7 @@
       <c r="P163" s="16"/>
       <c r="Q163" s="16"/>
     </row>
-    <row r="164" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A164" s="9">
         <v>44463</v>
       </c>
@@ -23806,7 +23805,7 @@
       <c r="P164" s="16"/>
       <c r="Q164" s="16"/>
     </row>
-    <row r="165" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A165" s="9">
         <v>44463</v>
       </c>
@@ -23845,7 +23844,7 @@
       <c r="P165" s="16"/>
       <c r="Q165" s="16"/>
     </row>
-    <row r="166" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A166" s="9">
         <v>44463</v>
       </c>
@@ -23884,7 +23883,7 @@
       <c r="P166" s="16"/>
       <c r="Q166" s="16"/>
     </row>
-    <row r="167" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A167" s="9">
         <v>44463</v>
       </c>
@@ -23923,7 +23922,7 @@
       <c r="P167" s="16"/>
       <c r="Q167" s="16"/>
     </row>
-    <row r="168" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A168" s="9">
         <v>44463</v>
       </c>
@@ -23962,7 +23961,7 @@
       <c r="P168" s="16"/>
       <c r="Q168" s="16"/>
     </row>
-    <row r="169" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A169" s="9">
         <v>44463</v>
       </c>
@@ -24001,7 +24000,7 @@
       <c r="P169" s="16"/>
       <c r="Q169" s="16"/>
     </row>
-    <row r="170" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A170" s="9">
         <v>44463</v>
       </c>
@@ -24040,7 +24039,7 @@
       <c r="P170" s="16"/>
       <c r="Q170" s="16"/>
     </row>
-    <row r="171" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A171" s="9">
         <v>44463</v>
       </c>
@@ -24079,7 +24078,7 @@
       <c r="P171" s="16"/>
       <c r="Q171" s="16"/>
     </row>
-    <row r="172" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:17" ht="56" x14ac:dyDescent="0.15">
       <c r="A172" s="9">
         <v>44463</v>
       </c>
@@ -24118,7 +24117,7 @@
       <c r="P172" s="16"/>
       <c r="Q172" s="16"/>
     </row>
-    <row r="173" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A173" s="9">
         <v>44463</v>
       </c>
@@ -24157,7 +24156,7 @@
       <c r="P173" s="16"/>
       <c r="Q173" s="16"/>
     </row>
-    <row r="174" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:17" ht="56" x14ac:dyDescent="0.15">
       <c r="A174" s="9">
         <v>44463</v>
       </c>
@@ -24196,7 +24195,7 @@
       <c r="P174" s="16"/>
       <c r="Q174" s="16"/>
     </row>
-    <row r="175" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A175" s="9">
         <v>44463</v>
       </c>
@@ -27295,7 +27294,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="244" spans="1:17" ht="42" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A244" s="9">
         <v>44463</v>
       </c>
@@ -27349,7 +27348,7 @@
         <v>Remove C39807 from codelist and replace with C9385.</v>
       </c>
     </row>
-    <row r="245" spans="1:17" ht="42" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A245" s="9">
         <v>44463</v>
       </c>
@@ -27403,7 +27402,7 @@
         <v>Remove C6803 from codelist and replace with C124614.</v>
       </c>
     </row>
-    <row r="246" spans="1:17" ht="42" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A246" s="9">
         <v>44463</v>
       </c>
@@ -27457,7 +27456,7 @@
         <v>Remove C81854 from codelist and replace with C53998.</v>
       </c>
     </row>
-    <row r="247" spans="1:17" ht="42" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A247" s="9">
         <v>44463</v>
       </c>
@@ -27691,7 +27690,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="252" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A252" s="9">
         <v>44463</v>
       </c>
@@ -27730,7 +27729,7 @@
       <c r="P252" s="16"/>
       <c r="Q252" s="16"/>
     </row>
-    <row r="253" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:17" ht="154" x14ac:dyDescent="0.15">
       <c r="A253" s="9">
         <v>44463</v>
       </c>
@@ -27769,7 +27768,7 @@
       <c r="P253" s="16"/>
       <c r="Q253" s="16"/>
     </row>
-    <row r="254" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:17" ht="154" x14ac:dyDescent="0.15">
       <c r="A254" s="9">
         <v>44463</v>
       </c>
@@ -27808,7 +27807,7 @@
       <c r="P254" s="16"/>
       <c r="Q254" s="16"/>
     </row>
-    <row r="255" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:17" ht="154" x14ac:dyDescent="0.15">
       <c r="A255" s="9">
         <v>44463</v>
       </c>
@@ -27847,7 +27846,7 @@
       <c r="P255" s="16"/>
       <c r="Q255" s="16"/>
     </row>
-    <row r="256" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:17" ht="168" x14ac:dyDescent="0.15">
       <c r="A256" s="9">
         <v>44463</v>
       </c>
@@ -27886,7 +27885,7 @@
       <c r="P256" s="16"/>
       <c r="Q256" s="16"/>
     </row>
-    <row r="257" spans="1:17" ht="98" hidden="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:17" ht="168" x14ac:dyDescent="0.15">
       <c r="A257" s="9">
         <v>44463</v>
       </c>
@@ -27925,7 +27924,7 @@
       <c r="P257" s="16"/>
       <c r="Q257" s="16"/>
     </row>
-    <row r="258" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:17" ht="154" x14ac:dyDescent="0.15">
       <c r="A258" s="9">
         <v>44463</v>
       </c>
@@ -27964,7 +27963,7 @@
       <c r="P258" s="16"/>
       <c r="Q258" s="16"/>
     </row>
-    <row r="259" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:17" ht="126" x14ac:dyDescent="0.15">
       <c r="A259" s="9">
         <v>44463</v>
       </c>
@@ -28003,7 +28002,7 @@
       <c r="P259" s="16"/>
       <c r="Q259" s="16"/>
     </row>
-    <row r="260" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:17" ht="126" x14ac:dyDescent="0.15">
       <c r="A260" s="9">
         <v>44463</v>
       </c>
@@ -28042,7 +28041,7 @@
       <c r="P260" s="16"/>
       <c r="Q260" s="16"/>
     </row>
-    <row r="261" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A261" s="9">
         <v>44463</v>
       </c>
@@ -28081,7 +28080,7 @@
       <c r="P261" s="16"/>
       <c r="Q261" s="16"/>
     </row>
-    <row r="262" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A262" s="9">
         <v>44463</v>
       </c>
@@ -28120,7 +28119,7 @@
       <c r="P262" s="16"/>
       <c r="Q262" s="16"/>
     </row>
-    <row r="263" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:17" ht="126" x14ac:dyDescent="0.15">
       <c r="A263" s="9">
         <v>44463</v>
       </c>
@@ -28159,7 +28158,7 @@
       <c r="P263" s="16"/>
       <c r="Q263" s="16"/>
     </row>
-    <row r="264" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:17" ht="126" x14ac:dyDescent="0.15">
       <c r="A264" s="9">
         <v>44463</v>
       </c>
@@ -28198,7 +28197,7 @@
       <c r="P264" s="16"/>
       <c r="Q264" s="16"/>
     </row>
-    <row r="265" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:17" ht="154" x14ac:dyDescent="0.15">
       <c r="A265" s="9">
         <v>44463</v>
       </c>
@@ -28237,7 +28236,7 @@
       <c r="P265" s="16"/>
       <c r="Q265" s="16"/>
     </row>
-    <row r="266" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:17" ht="154" x14ac:dyDescent="0.15">
       <c r="A266" s="9">
         <v>44463</v>
       </c>
@@ -28276,7 +28275,7 @@
       <c r="P266" s="16"/>
       <c r="Q266" s="16"/>
     </row>
-    <row r="267" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:17" ht="154" x14ac:dyDescent="0.15">
       <c r="A267" s="9">
         <v>44463</v>
       </c>
@@ -28315,7 +28314,7 @@
       <c r="P267" s="16"/>
       <c r="Q267" s="16"/>
     </row>
-    <row r="268" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:17" ht="168" x14ac:dyDescent="0.15">
       <c r="A268" s="9">
         <v>44463</v>
       </c>
@@ -28354,7 +28353,7 @@
       <c r="P268" s="16"/>
       <c r="Q268" s="16"/>
     </row>
-    <row r="269" spans="1:17" ht="98" hidden="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:17" ht="168" x14ac:dyDescent="0.15">
       <c r="A269" s="9">
         <v>44463</v>
       </c>
@@ -28393,7 +28392,7 @@
       <c r="P269" s="16"/>
       <c r="Q269" s="16"/>
     </row>
-    <row r="270" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:17" ht="154" x14ac:dyDescent="0.15">
       <c r="A270" s="9">
         <v>44463</v>
       </c>
@@ -28432,7 +28431,7 @@
       <c r="P270" s="16"/>
       <c r="Q270" s="16"/>
     </row>
-    <row r="271" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:17" ht="126" x14ac:dyDescent="0.15">
       <c r="A271" s="9">
         <v>44463</v>
       </c>
@@ -28471,7 +28470,7 @@
       <c r="P271" s="16"/>
       <c r="Q271" s="16"/>
     </row>
-    <row r="272" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:17" ht="126" x14ac:dyDescent="0.15">
       <c r="A272" s="9">
         <v>44463</v>
       </c>
@@ -28510,7 +28509,7 @@
       <c r="P272" s="16"/>
       <c r="Q272" s="16"/>
     </row>
-    <row r="273" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A273" s="9">
         <v>44463</v>
       </c>
@@ -28549,7 +28548,7 @@
       <c r="P273" s="16"/>
       <c r="Q273" s="16"/>
     </row>
-    <row r="274" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A274" s="9">
         <v>44463</v>
       </c>
@@ -28588,7 +28587,7 @@
       <c r="P274" s="16"/>
       <c r="Q274" s="16"/>
     </row>
-    <row r="275" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:17" ht="126" x14ac:dyDescent="0.15">
       <c r="A275" s="9">
         <v>44463</v>
       </c>
@@ -28627,7 +28626,7 @@
       <c r="P275" s="16"/>
       <c r="Q275" s="16"/>
     </row>
-    <row r="276" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:17" ht="126" x14ac:dyDescent="0.15">
       <c r="A276" s="9">
         <v>44463</v>
       </c>
@@ -28666,7 +28665,7 @@
       <c r="P276" s="16"/>
       <c r="Q276" s="16"/>
     </row>
-    <row r="277" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A277" s="9">
         <v>44463</v>
       </c>
@@ -28705,7 +28704,7 @@
       <c r="P277" s="16"/>
       <c r="Q277" s="16"/>
     </row>
-    <row r="278" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A278" s="9">
         <v>44463</v>
       </c>
@@ -28744,7 +28743,7 @@
       <c r="P278" s="16"/>
       <c r="Q278" s="16"/>
     </row>
-    <row r="279" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A279" s="9">
         <v>44463</v>
       </c>
@@ -28783,7 +28782,7 @@
       <c r="P279" s="16"/>
       <c r="Q279" s="16"/>
     </row>
-    <row r="280" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A280" s="9">
         <v>44463</v>
       </c>
@@ -28822,7 +28821,7 @@
       <c r="P280" s="16"/>
       <c r="Q280" s="16"/>
     </row>
-    <row r="281" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A281" s="9">
         <v>44463</v>
       </c>
@@ -28861,7 +28860,7 @@
       <c r="P281" s="16"/>
       <c r="Q281" s="16"/>
     </row>
-    <row r="282" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A282" s="9">
         <v>44463</v>
       </c>
@@ -28900,7 +28899,7 @@
       <c r="P282" s="16"/>
       <c r="Q282" s="16"/>
     </row>
-    <row r="283" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A283" s="9">
         <v>44463</v>
       </c>
@@ -28939,7 +28938,7 @@
       <c r="P283" s="16"/>
       <c r="Q283" s="16"/>
     </row>
-    <row r="284" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A284" s="9">
         <v>44463</v>
       </c>
@@ -28978,7 +28977,7 @@
       <c r="P284" s="16"/>
       <c r="Q284" s="16"/>
     </row>
-    <row r="285" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A285" s="9">
         <v>44463</v>
       </c>
@@ -29017,7 +29016,7 @@
       <c r="P285" s="16"/>
       <c r="Q285" s="16"/>
     </row>
-    <row r="286" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A286" s="9">
         <v>44463</v>
       </c>
@@ -29056,7 +29055,7 @@
       <c r="P286" s="16"/>
       <c r="Q286" s="16"/>
     </row>
-    <row r="287" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A287" s="9">
         <v>44463</v>
       </c>
@@ -29095,7 +29094,7 @@
       <c r="P287" s="16"/>
       <c r="Q287" s="16"/>
     </row>
-    <row r="288" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A288" s="9">
         <v>44463</v>
       </c>
@@ -29134,7 +29133,7 @@
       <c r="P288" s="16"/>
       <c r="Q288" s="16"/>
     </row>
-    <row r="289" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A289" s="9">
         <v>44463</v>
       </c>
@@ -29173,7 +29172,7 @@
       <c r="P289" s="16"/>
       <c r="Q289" s="16"/>
     </row>
-    <row r="290" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A290" s="9">
         <v>44463</v>
       </c>
@@ -29212,7 +29211,7 @@
       <c r="P290" s="16"/>
       <c r="Q290" s="16"/>
     </row>
-    <row r="291" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A291" s="9">
         <v>44463</v>
       </c>
@@ -29251,7 +29250,7 @@
       <c r="P291" s="16"/>
       <c r="Q291" s="16"/>
     </row>
-    <row r="292" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A292" s="9">
         <v>44463</v>
       </c>
@@ -29290,7 +29289,7 @@
       <c r="P292" s="16"/>
       <c r="Q292" s="16"/>
     </row>
-    <row r="293" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A293" s="9">
         <v>44463</v>
       </c>
@@ -29329,7 +29328,7 @@
       <c r="P293" s="16"/>
       <c r="Q293" s="16"/>
     </row>
-    <row r="294" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A294" s="9">
         <v>44463</v>
       </c>
@@ -29368,7 +29367,7 @@
       <c r="P294" s="16"/>
       <c r="Q294" s="16"/>
     </row>
-    <row r="295" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A295" s="9">
         <v>44463</v>
       </c>
@@ -29407,7 +29406,7 @@
       <c r="P295" s="16"/>
       <c r="Q295" s="16"/>
     </row>
-    <row r="296" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A296" s="9">
         <v>44463</v>
       </c>
@@ -29446,7 +29445,7 @@
       <c r="P296" s="16"/>
       <c r="Q296" s="16"/>
     </row>
-    <row r="297" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A297" s="9">
         <v>44463</v>
       </c>
@@ -29485,7 +29484,7 @@
       <c r="P297" s="16"/>
       <c r="Q297" s="16"/>
     </row>
-    <row r="298" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A298" s="9">
         <v>44463</v>
       </c>
@@ -29524,7 +29523,7 @@
       <c r="P298" s="16"/>
       <c r="Q298" s="16"/>
     </row>
-    <row r="299" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A299" s="9">
         <v>44463</v>
       </c>
@@ -29563,7 +29562,7 @@
       <c r="P299" s="16"/>
       <c r="Q299" s="16"/>
     </row>
-    <row r="300" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:17" ht="70" x14ac:dyDescent="0.15">
       <c r="A300" s="9">
         <v>44463</v>
       </c>
@@ -29602,7 +29601,7 @@
       <c r="P300" s="16"/>
       <c r="Q300" s="16"/>
     </row>
-    <row r="301" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:17" ht="70" x14ac:dyDescent="0.15">
       <c r="A301" s="9">
         <v>44463</v>
       </c>
@@ -29641,7 +29640,7 @@
       <c r="P301" s="16"/>
       <c r="Q301" s="16"/>
     </row>
-    <row r="302" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:17" ht="84" x14ac:dyDescent="0.15">
       <c r="A302" s="9">
         <v>44463</v>
       </c>
@@ -29680,7 +29679,7 @@
       <c r="P302" s="16"/>
       <c r="Q302" s="16"/>
     </row>
-    <row r="303" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:17" ht="84" x14ac:dyDescent="0.15">
       <c r="A303" s="9">
         <v>44463</v>
       </c>
@@ -29719,7 +29718,7 @@
       <c r="P303" s="16"/>
       <c r="Q303" s="16"/>
     </row>
-    <row r="304" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:17" ht="84" x14ac:dyDescent="0.15">
       <c r="A304" s="9">
         <v>44463</v>
       </c>
@@ -29758,7 +29757,7 @@
       <c r="P304" s="16"/>
       <c r="Q304" s="16"/>
     </row>
-    <row r="305" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:17" ht="42" x14ac:dyDescent="0.15">
       <c r="A305" s="9">
         <v>44463</v>
       </c>
@@ -29797,7 +29796,7 @@
       <c r="P305" s="16"/>
       <c r="Q305" s="16"/>
     </row>
-    <row r="306" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:17" ht="42" x14ac:dyDescent="0.15">
       <c r="A306" s="9">
         <v>44463</v>
       </c>
@@ -29836,7 +29835,7 @@
       <c r="P306" s="16"/>
       <c r="Q306" s="16"/>
     </row>
-    <row r="307" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:17" ht="98" x14ac:dyDescent="0.15">
       <c r="A307" s="9">
         <v>44463</v>
       </c>
@@ -29875,7 +29874,7 @@
       <c r="P307" s="16"/>
       <c r="Q307" s="16"/>
     </row>
-    <row r="308" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:17" ht="42" x14ac:dyDescent="0.15">
       <c r="A308" s="9">
         <v>44463</v>
       </c>
@@ -29914,7 +29913,7 @@
       <c r="P308" s="16"/>
       <c r="Q308" s="16"/>
     </row>
-    <row r="309" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A309" s="9">
         <v>44463</v>
       </c>
@@ -29953,7 +29952,7 @@
       <c r="P309" s="16"/>
       <c r="Q309" s="16"/>
     </row>
-    <row r="310" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A310" s="9">
         <v>44463</v>
       </c>
@@ -29992,7 +29991,7 @@
       <c r="P310" s="16"/>
       <c r="Q310" s="16"/>
     </row>
-    <row r="311" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:17" ht="42" x14ac:dyDescent="0.15">
       <c r="A311" s="9">
         <v>44463</v>
       </c>
@@ -30031,7 +30030,7 @@
       <c r="P311" s="16"/>
       <c r="Q311" s="16"/>
     </row>
-    <row r="312" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:17" ht="98" x14ac:dyDescent="0.15">
       <c r="A312" s="9">
         <v>44463</v>
       </c>
@@ -30070,7 +30069,7 @@
       <c r="P312" s="16"/>
       <c r="Q312" s="16"/>
     </row>
-    <row r="313" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:17" ht="42" x14ac:dyDescent="0.15">
       <c r="A313" s="9">
         <v>44463</v>
       </c>
@@ -30109,7 +30108,7 @@
       <c r="P313" s="16"/>
       <c r="Q313" s="16"/>
     </row>
-    <row r="314" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A314" s="9">
         <v>44463</v>
       </c>
@@ -30148,7 +30147,7 @@
       <c r="P314" s="16"/>
       <c r="Q314" s="16"/>
     </row>
-    <row r="315" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A315" s="9">
         <v>44463</v>
       </c>
@@ -30187,7 +30186,7 @@
       <c r="P315" s="16"/>
       <c r="Q315" s="16"/>
     </row>
-    <row r="316" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:17" ht="42" x14ac:dyDescent="0.15">
       <c r="A316" s="9">
         <v>44463</v>
       </c>
@@ -30226,7 +30225,7 @@
       <c r="P316" s="16"/>
       <c r="Q316" s="16"/>
     </row>
-    <row r="317" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:17" ht="84" x14ac:dyDescent="0.15">
       <c r="A317" s="9">
         <v>44463</v>
       </c>
@@ -30265,7 +30264,7 @@
       <c r="P317" s="16"/>
       <c r="Q317" s="16"/>
     </row>
-    <row r="318" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:17" ht="42" x14ac:dyDescent="0.15">
       <c r="A318" s="9">
         <v>44463</v>
       </c>
@@ -30304,7 +30303,7 @@
       <c r="P318" s="16"/>
       <c r="Q318" s="16"/>
     </row>
-    <row r="319" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A319" s="9">
         <v>44463</v>
       </c>
@@ -30343,7 +30342,7 @@
       <c r="P319" s="16"/>
       <c r="Q319" s="16"/>
     </row>
-    <row r="320" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A320" s="9">
         <v>44463</v>
       </c>
@@ -30382,7 +30381,7 @@
       <c r="P320" s="16"/>
       <c r="Q320" s="16"/>
     </row>
-    <row r="321" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:17" ht="42" x14ac:dyDescent="0.15">
       <c r="A321" s="9">
         <v>44463</v>
       </c>
@@ -30421,7 +30420,7 @@
       <c r="P321" s="16"/>
       <c r="Q321" s="16"/>
     </row>
-    <row r="322" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:17" ht="98" x14ac:dyDescent="0.15">
       <c r="A322" s="9">
         <v>44463</v>
       </c>
@@ -30460,7 +30459,7 @@
       <c r="P322" s="16"/>
       <c r="Q322" s="16"/>
     </row>
-    <row r="323" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:17" ht="42" x14ac:dyDescent="0.15">
       <c r="A323" s="9">
         <v>44463</v>
       </c>
@@ -30499,7 +30498,7 @@
       <c r="P323" s="16"/>
       <c r="Q323" s="16"/>
     </row>
-    <row r="324" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A324" s="9">
         <v>44463</v>
       </c>
@@ -30538,7 +30537,7 @@
       <c r="P324" s="16"/>
       <c r="Q324" s="16"/>
     </row>
-    <row r="325" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A325" s="9">
         <v>44463</v>
       </c>
@@ -30577,7 +30576,7 @@
       <c r="P325" s="16"/>
       <c r="Q325" s="16"/>
     </row>
-    <row r="326" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:17" ht="42" x14ac:dyDescent="0.15">
       <c r="A326" s="9">
         <v>44463</v>
       </c>
@@ -30616,7 +30615,7 @@
       <c r="P326" s="16"/>
       <c r="Q326" s="16"/>
     </row>
-    <row r="327" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:17" ht="98" x14ac:dyDescent="0.15">
       <c r="A327" s="9">
         <v>44463</v>
       </c>
@@ -30655,7 +30654,7 @@
       <c r="P327" s="16"/>
       <c r="Q327" s="16"/>
     </row>
-    <row r="328" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:17" ht="42" x14ac:dyDescent="0.15">
       <c r="A328" s="9">
         <v>44463</v>
       </c>
@@ -30694,7 +30693,7 @@
       <c r="P328" s="16"/>
       <c r="Q328" s="16"/>
     </row>
-    <row r="329" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A329" s="9">
         <v>44463</v>
       </c>
@@ -30733,7 +30732,7 @@
       <c r="P329" s="16"/>
       <c r="Q329" s="16"/>
     </row>
-    <row r="330" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A330" s="9">
         <v>44463</v>
       </c>
@@ -30772,7 +30771,7 @@
       <c r="P330" s="16"/>
       <c r="Q330" s="16"/>
     </row>
-    <row r="331" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:17" ht="42" x14ac:dyDescent="0.15">
       <c r="A331" s="9">
         <v>44463</v>
       </c>
@@ -30811,7 +30810,7 @@
       <c r="P331" s="16"/>
       <c r="Q331" s="16"/>
     </row>
-    <row r="332" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:17" ht="84" x14ac:dyDescent="0.15">
       <c r="A332" s="9">
         <v>44463</v>
       </c>
@@ -30850,7 +30849,7 @@
       <c r="P332" s="16"/>
       <c r="Q332" s="16"/>
     </row>
-    <row r="333" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:17" ht="42" x14ac:dyDescent="0.15">
       <c r="A333" s="9">
         <v>44463</v>
       </c>
@@ -30889,7 +30888,7 @@
       <c r="P333" s="16"/>
       <c r="Q333" s="16"/>
     </row>
-    <row r="334" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A334" s="9">
         <v>44463</v>
       </c>
@@ -30928,7 +30927,7 @@
       <c r="P334" s="16"/>
       <c r="Q334" s="16"/>
     </row>
-    <row r="335" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A335" s="9">
         <v>44463</v>
       </c>
@@ -30967,7 +30966,7 @@
       <c r="P335" s="16"/>
       <c r="Q335" s="16"/>
     </row>
-    <row r="336" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A336" s="9">
         <v>44463</v>
       </c>
@@ -31006,7 +31005,7 @@
       <c r="P336" s="16"/>
       <c r="Q336" s="16"/>
     </row>
-    <row r="337" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A337" s="9">
         <v>44463</v>
       </c>
@@ -31045,7 +31044,7 @@
       <c r="P337" s="16"/>
       <c r="Q337" s="16"/>
     </row>
-    <row r="338" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A338" s="9">
         <v>44463</v>
       </c>
@@ -31084,7 +31083,7 @@
       <c r="P338" s="16"/>
       <c r="Q338" s="16"/>
     </row>
-    <row r="339" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:17" ht="70" x14ac:dyDescent="0.15">
       <c r="A339" s="9">
         <v>44463</v>
       </c>
@@ -31123,7 +31122,7 @@
       <c r="P339" s="16"/>
       <c r="Q339" s="16"/>
     </row>
-    <row r="340" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:17" ht="84" x14ac:dyDescent="0.15">
       <c r="A340" s="9">
         <v>44463</v>
       </c>
@@ -31162,7 +31161,7 @@
       <c r="P340" s="16"/>
       <c r="Q340" s="16"/>
     </row>
-    <row r="341" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A341" s="9">
         <v>44463</v>
       </c>
@@ -31201,7 +31200,7 @@
       <c r="P341" s="16"/>
       <c r="Q341" s="16"/>
     </row>
-    <row r="342" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:17" ht="70" x14ac:dyDescent="0.15">
       <c r="A342" s="9">
         <v>44463</v>
       </c>
@@ -31240,7 +31239,7 @@
       <c r="P342" s="16"/>
       <c r="Q342" s="16"/>
     </row>
-    <row r="343" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:17" ht="70" x14ac:dyDescent="0.15">
       <c r="A343" s="9">
         <v>44463</v>
       </c>
@@ -31279,7 +31278,7 @@
       <c r="P343" s="16"/>
       <c r="Q343" s="16"/>
     </row>
-    <row r="344" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A344" s="9">
         <v>44463</v>
       </c>
@@ -31318,7 +31317,7 @@
       <c r="P344" s="16"/>
       <c r="Q344" s="16"/>
     </row>
-    <row r="345" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A345" s="9">
         <v>44463</v>
       </c>
@@ -31357,7 +31356,7 @@
       <c r="P345" s="16"/>
       <c r="Q345" s="16"/>
     </row>
-    <row r="346" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:17" ht="56" x14ac:dyDescent="0.15">
       <c r="A346" s="9">
         <v>44463</v>
       </c>
@@ -31396,7 +31395,7 @@
       <c r="P346" s="16"/>
       <c r="Q346" s="16"/>
     </row>
-    <row r="347" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A347" s="9">
         <v>44463</v>
       </c>
@@ -31435,7 +31434,7 @@
       <c r="P347" s="16"/>
       <c r="Q347" s="16"/>
     </row>
-    <row r="348" spans="1:17" ht="126" hidden="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:17" ht="126" x14ac:dyDescent="0.15">
       <c r="A348" s="9">
         <v>44463</v>
       </c>
@@ -31474,7 +31473,7 @@
       <c r="P348" s="16"/>
       <c r="Q348" s="16"/>
     </row>
-    <row r="349" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:17" ht="70" x14ac:dyDescent="0.15">
       <c r="A349" s="9">
         <v>44463</v>
       </c>
@@ -31513,7 +31512,7 @@
       <c r="P349" s="16"/>
       <c r="Q349" s="16"/>
     </row>
-    <row r="350" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:17" ht="70" x14ac:dyDescent="0.15">
       <c r="A350" s="9">
         <v>44463</v>
       </c>
@@ -31552,7 +31551,7 @@
       <c r="P350" s="16"/>
       <c r="Q350" s="16"/>
     </row>
-    <row r="351" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:17" ht="70" x14ac:dyDescent="0.15">
       <c r="A351" s="9">
         <v>44463</v>
       </c>
@@ -31591,7 +31590,7 @@
       <c r="P351" s="16"/>
       <c r="Q351" s="16"/>
     </row>
-    <row r="352" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:17" ht="70" x14ac:dyDescent="0.15">
       <c r="A352" s="9">
         <v>44463</v>
       </c>
@@ -31630,7 +31629,7 @@
       <c r="P352" s="16"/>
       <c r="Q352" s="16"/>
     </row>
-    <row r="353" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:17" ht="70" x14ac:dyDescent="0.15">
       <c r="A353" s="9">
         <v>44463</v>
       </c>
@@ -31669,7 +31668,7 @@
       <c r="P353" s="16"/>
       <c r="Q353" s="16"/>
     </row>
-    <row r="354" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:17" ht="98" x14ac:dyDescent="0.15">
       <c r="A354" s="9">
         <v>44463</v>
       </c>
@@ -31708,7 +31707,7 @@
       <c r="P354" s="16"/>
       <c r="Q354" s="16"/>
     </row>
-    <row r="355" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:17" ht="70" x14ac:dyDescent="0.15">
       <c r="A355" s="9">
         <v>44463</v>
       </c>
@@ -31747,7 +31746,7 @@
       <c r="P355" s="16"/>
       <c r="Q355" s="16"/>
     </row>
-    <row r="356" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A356" s="9">
         <v>44463</v>
       </c>
@@ -31786,7 +31785,7 @@
       <c r="P356" s="16"/>
       <c r="Q356" s="16"/>
     </row>
-    <row r="357" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A357" s="9">
         <v>44463</v>
       </c>
@@ -31825,7 +31824,7 @@
       <c r="P357" s="16"/>
       <c r="Q357" s="16"/>
     </row>
-    <row r="358" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:17" ht="98" x14ac:dyDescent="0.15">
       <c r="A358" s="9">
         <v>44463</v>
       </c>
@@ -31864,7 +31863,7 @@
       <c r="P358" s="16"/>
       <c r="Q358" s="16"/>
     </row>
-    <row r="359" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A359" s="9">
         <v>44463</v>
       </c>
@@ -31903,7 +31902,7 @@
       <c r="P359" s="16"/>
       <c r="Q359" s="16"/>
     </row>
-    <row r="360" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A360" s="9">
         <v>44463</v>
       </c>
@@ -31942,7 +31941,7 @@
       <c r="P360" s="16"/>
       <c r="Q360" s="16"/>
     </row>
-    <row r="361" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:17" ht="112" x14ac:dyDescent="0.15">
       <c r="A361" s="9">
         <v>44463</v>
       </c>
@@ -31981,7 +31980,7 @@
       <c r="P361" s="16"/>
       <c r="Q361" s="16"/>
     </row>
-    <row r="362" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:17" ht="56" x14ac:dyDescent="0.15">
       <c r="A362" s="9">
         <v>44463</v>
       </c>
@@ -32020,7 +32019,7 @@
       <c r="P362" s="16"/>
       <c r="Q362" s="16"/>
     </row>
-    <row r="363" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:17" ht="56" x14ac:dyDescent="0.15">
       <c r="A363" s="9">
         <v>44463</v>
       </c>
@@ -32061,11 +32060,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K363" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="10">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K363">
       <sortCondition ref="C1:C136"/>
     </sortState>

--- a/db/load/cdisc/ct/changes/2021-09-24/SEND Terminology Changes 2021-09-24.xlsx
+++ b/db/load/cdisc/ct/changes/2021-09-24/SEND Terminology Changes 2021-09-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/changes/2021-09-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A260AAA-0DC5-EC4D-9E76-3AD4F0BC2758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E5F62E-5650-3F4F-91CE-7C34FC5D4C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35540" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2079,9 +2079,6 @@
     <t>C88025</t>
   </si>
   <si>
-    <t>C938</t>
-  </si>
-  <si>
     <t>C124614</t>
   </si>
   <si>
@@ -2092,6 +2089,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>C9385</t>
   </si>
 </sst>
 </file>
@@ -17376,8 +17376,8 @@
   <dimension ref="A1:Q363"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q244" sqref="Q244:Q247"/>
+      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P245" sqref="P245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27329,7 +27329,7 @@
         <v>665</v>
       </c>
       <c r="L244" s="17" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="M244" s="17" t="s">
         <v>680</v>
@@ -27341,7 +27341,7 @@
         <v>680</v>
       </c>
       <c r="P244" s="18" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="Q244" s="10" t="str">
         <f>K244</f>
@@ -27383,7 +27383,7 @@
         <v>664</v>
       </c>
       <c r="L245" s="17" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="M245" s="17" t="s">
         <v>680</v>
@@ -27395,7 +27395,7 @@
         <v>680</v>
       </c>
       <c r="P245" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q245" s="10" t="str">
         <f>K245</f>
@@ -27437,7 +27437,7 @@
         <v>666</v>
       </c>
       <c r="L246" s="17" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="M246" s="17" t="s">
         <v>680</v>
@@ -27449,7 +27449,7 @@
         <v>680</v>
       </c>
       <c r="P246" s="18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Q246" s="10" t="str">
         <f>K246</f>
@@ -27491,7 +27491,7 @@
         <v>667</v>
       </c>
       <c r="L247" s="17" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="M247" s="17" t="s">
         <v>680</v>
@@ -27503,7 +27503,7 @@
         <v>680</v>
       </c>
       <c r="P247" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="Q247" s="10" t="str">
         <f>K247</f>
